--- a/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
@@ -417,159 +417,840 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.8396674468144871</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.8531548969861684</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.8619793419601315</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.8516077225913642</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.8679895732273126</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.8671258506711523</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.8757674880235411</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8656112442585315</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.8692222179810909</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0.8814575426131803</v>
+      </c>
+      <c r="D3">
+        <v>0.8941596712244183</v>
+      </c>
+      <c r="E3">
+        <v>0.8985689529210722</v>
+      </c>
+      <c r="F3">
+        <v>0.8941602476500186</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0.9057993197683818</v>
+      </c>
+      <c r="K3">
+        <v>0.9063534882504863</v>
+      </c>
+      <c r="L3">
+        <v>0.910688282793555</v>
+      </c>
+      <c r="M3">
+        <v>0.9063540548763884</v>
+      </c>
+      <c r="N3">
+        <v>0.907085658699087</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="C4">
+        <v>0.9036210014838344</v>
+      </c>
+      <c r="D4">
+        <v>0.9159400355626948</v>
+      </c>
+      <c r="E4">
+        <v>0.9180247064010325</v>
+      </c>
+      <c r="F4">
+        <v>0.9167624343191934</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>0.9258586021950052</v>
+      </c>
+      <c r="K4">
+        <v>0.9271713388441487</v>
+      </c>
+      <c r="L4">
+        <v>0.9292247247496231</v>
+      </c>
+      <c r="M4">
+        <v>0.9279813741233653</v>
+      </c>
+      <c r="N4">
+        <v>0.927173427607588</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="C5">
+        <v>0.9121520004826279</v>
+      </c>
+      <c r="D5">
+        <v>0.9243292543080801</v>
+      </c>
+      <c r="E5">
+        <v>0.9255207568241751</v>
+      </c>
+      <c r="F5">
+        <v>0.925468790290949</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0.9335791751370714</v>
+      </c>
+      <c r="K5">
+        <v>0.9351855555383661</v>
+      </c>
+      <c r="L5">
+        <v>0.9363600137690492</v>
+      </c>
+      <c r="M5">
+        <v>0.9363087894517814</v>
+      </c>
+      <c r="N5">
+        <v>0.9349049646487944</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="C6">
+        <v>0.9135452320578134</v>
+      </c>
+      <c r="D6">
+        <v>0.9256996207493916</v>
+      </c>
+      <c r="E6">
+        <v>0.9267453038527063</v>
+      </c>
+      <c r="F6">
+        <v>0.9268910077407584</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0.9348399831866131</v>
+      </c>
+      <c r="K6">
+        <v>0.9364944188667647</v>
+      </c>
+      <c r="L6">
+        <v>0.9375252622865018</v>
+      </c>
+      <c r="M6">
+        <v>0.9376689017961127</v>
+      </c>
+      <c r="N6">
+        <v>0.9361675631903826</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="C7">
+        <v>0.9037377498626119</v>
+      </c>
+      <c r="D7">
+        <v>0.9160548228639591</v>
+      </c>
+      <c r="E7">
+        <v>0.918127266326186</v>
+      </c>
+      <c r="F7">
+        <v>0.916881557921667</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0.9259642637273788</v>
+      </c>
+      <c r="K7">
+        <v>0.9272810121607514</v>
+      </c>
+      <c r="L7">
+        <v>0.9293223742845337</v>
+      </c>
+      <c r="M7">
+        <v>0.9280953268721929</v>
+      </c>
+      <c r="N7">
+        <v>0.9272792391914572</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="C8">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D8">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E8">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F8">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K8">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L8">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M8">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N8">
+        <v>0.8832327597011572</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="C9">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D9">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E9">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F9">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K9">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L9">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M9">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N9">
+        <v>0.8832327597011572</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="C10">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D10">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E10">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F10">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K10">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L10">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M10">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N10">
+        <v>0.8832327597011572</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="C11">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D11">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E11">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F11">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K11">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L11">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M11">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N11">
+        <v>0.8832327597011572</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="C12">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D12">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E12">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F12">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K12">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L12">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M12">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N12">
+        <v>0.8832327597011572</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D13">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E13">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F13">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K13">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L13">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M13">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N13">
+        <v>0.8832327597011572</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D14">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E14">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F14">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K14">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L14">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M14">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N14">
+        <v>0.8832327597011572</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="C15">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D15">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E15">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F15">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K15">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L15">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M15">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N15">
+        <v>0.8832327597011572</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="C16">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D16">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E16">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F16">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K16">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L16">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M16">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N16">
+        <v>0.8832327597011572</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D17">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E17">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F17">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K17">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L17">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M17">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N17">
+        <v>0.8832327597011572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C18">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D18">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E18">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F18">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K18">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L18">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M18">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N18">
+        <v>0.8832327597011572</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="C19">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D19">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E19">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F19">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K19">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L19">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M19">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N19">
+        <v>0.8832327597011572</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="C20">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D20">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E20">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F20">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K20">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L20">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M20">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N20">
+        <v>0.8832327597011572</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D21">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E21">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F21">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K21">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L21">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M21">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N21">
+        <v>0.8832327597011572</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="C22">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D22">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E22">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F22">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K22">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L22">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M22">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N22">
+        <v>0.8832327597011572</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="C23">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D23">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E23">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F23">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K23">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L23">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M23">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N23">
+        <v>0.8832327597011572</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="C24">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D24">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E24">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F24">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K24">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L24">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M24">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N24">
+        <v>0.8832327597011572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.8551350914207768</v>
+      </c>
+      <c r="D25">
+        <v>0.8683217187756859</v>
+      </c>
+      <c r="E25">
+        <v>0.8755055546903524</v>
+      </c>
+      <c r="F25">
+        <v>0.8673477648979779</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>0.8819802465864562</v>
+      </c>
+      <c r="K25">
+        <v>0.8816398633937438</v>
+      </c>
+      <c r="L25">
+        <v>0.8886853530826562</v>
+      </c>
+      <c r="M25">
+        <v>0.8806848973287803</v>
+      </c>
+      <c r="N25">
+        <v>0.8832327597011572</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
@@ -417,840 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.8396674468144871</v>
+        <v>1.023995765587499</v>
       </c>
       <c r="D2">
-        <v>0.8531548969861684</v>
+        <v>1.036898721238467</v>
       </c>
       <c r="E2">
-        <v>0.8619793419601315</v>
+        <v>1.036454801746773</v>
       </c>
       <c r="F2">
-        <v>0.8516077225913642</v>
+        <v>1.045806917472366</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.059129295298154</v>
+      </c>
       <c r="J2">
-        <v>0.8679895732273126</v>
+        <v>1.045481712009823</v>
       </c>
       <c r="K2">
-        <v>0.8671258506711523</v>
+        <v>1.047866862348794</v>
       </c>
       <c r="L2">
-        <v>0.8757674880235411</v>
+        <v>1.047428592568188</v>
       </c>
       <c r="M2">
-        <v>0.8656112442585315</v>
+        <v>1.056662948424173</v>
       </c>
       <c r="N2">
-        <v>0.8692222179810909</v>
+        <v>1.018613677021082</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.8814575426131803</v>
+        <v>1.029532276024458</v>
       </c>
       <c r="D3">
-        <v>0.8941596712244183</v>
+        <v>1.041628852255732</v>
       </c>
       <c r="E3">
-        <v>0.8985689529210722</v>
+        <v>1.041111170914964</v>
       </c>
       <c r="F3">
-        <v>0.8941602476500186</v>
+        <v>1.050765625745626</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.060803017324234</v>
+      </c>
       <c r="J3">
-        <v>0.9057993197683818</v>
+        <v>1.049249003804606</v>
       </c>
       <c r="K3">
-        <v>0.9063534882504863</v>
+        <v>1.051755412814368</v>
       </c>
       <c r="L3">
-        <v>0.910688282793555</v>
+        <v>1.051243720496022</v>
       </c>
       <c r="M3">
-        <v>0.9063540548763884</v>
+        <v>1.060787680883772</v>
       </c>
       <c r="N3">
-        <v>0.907085658699087</v>
+        <v>1.019890042619457</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9036210014838344</v>
+        <v>1.033030614600081</v>
       </c>
       <c r="D4">
-        <v>0.9159400355626948</v>
+        <v>1.044622727341738</v>
       </c>
       <c r="E4">
-        <v>0.9180247064010325</v>
+        <v>1.044059090560938</v>
       </c>
       <c r="F4">
-        <v>0.9167624343191934</v>
+        <v>1.053904528642867</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.061844916999683</v>
+      </c>
       <c r="J4">
-        <v>0.9258586021950052</v>
+        <v>1.051625538380819</v>
       </c>
       <c r="K4">
-        <v>0.9271713388441487</v>
+        <v>1.054210848865712</v>
       </c>
       <c r="L4">
-        <v>0.9292247247496231</v>
+        <v>1.053653323909004</v>
       </c>
       <c r="M4">
-        <v>0.9279813741233653</v>
+        <v>1.063393153306197</v>
       </c>
       <c r="N4">
-        <v>0.927173427607588</v>
+        <v>1.020694961267002</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9121520004826279</v>
+        <v>1.034482004313874</v>
       </c>
       <c r="D5">
-        <v>0.9243292543080801</v>
+        <v>1.045865987981074</v>
       </c>
       <c r="E5">
-        <v>0.9255207568241751</v>
+        <v>1.045283439901023</v>
       </c>
       <c r="F5">
-        <v>0.925468790290949</v>
+        <v>1.05520810014686</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.062273363697739</v>
+      </c>
       <c r="J5">
-        <v>0.9335791751370714</v>
+        <v>1.052610535229578</v>
       </c>
       <c r="K5">
-        <v>0.9351855555383661</v>
+        <v>1.055229125812942</v>
       </c>
       <c r="L5">
-        <v>0.9363600137690492</v>
+        <v>1.054652720137723</v>
       </c>
       <c r="M5">
-        <v>0.9363087894517814</v>
+        <v>1.064473864919815</v>
       </c>
       <c r="N5">
-        <v>0.9349049646487944</v>
+        <v>1.021028506595662</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9135452320578134</v>
+        <v>1.034724589915891</v>
       </c>
       <c r="D6">
-        <v>0.9256996207493916</v>
+        <v>1.04607385374083</v>
       </c>
       <c r="E6">
-        <v>0.9267453038527063</v>
+        <v>1.04548815386604</v>
       </c>
       <c r="F6">
-        <v>0.9268910077407584</v>
+        <v>1.055426054570578</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.062344748369625</v>
+      </c>
       <c r="J6">
-        <v>0.9348399831866131</v>
+        <v>1.052775108973932</v>
       </c>
       <c r="K6">
-        <v>0.9364944188667647</v>
+        <v>1.055399294016224</v>
       </c>
       <c r="L6">
-        <v>0.9375252622865018</v>
+        <v>1.054819740505481</v>
       </c>
       <c r="M6">
-        <v>0.9376689017961127</v>
+        <v>1.064654479372124</v>
       </c>
       <c r="N6">
-        <v>0.9361675631903826</v>
+        <v>1.021084231366822</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9037377498626119</v>
+        <v>1.033050082954818</v>
       </c>
       <c r="D7">
-        <v>0.9160548228639591</v>
+        <v>1.044639399408009</v>
       </c>
       <c r="E7">
-        <v>0.918127266326186</v>
+        <v>1.044075508349549</v>
       </c>
       <c r="F7">
-        <v>0.916881557921667</v>
+        <v>1.053922009136248</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.061850679169968</v>
+      </c>
       <c r="J7">
-        <v>0.9259642637273788</v>
+        <v>1.051638754659058</v>
       </c>
       <c r="K7">
-        <v>0.9272810121607514</v>
+        <v>1.054224509396056</v>
       </c>
       <c r="L7">
-        <v>0.9293223742845337</v>
+        <v>1.053666730650327</v>
       </c>
       <c r="M7">
-        <v>0.9280953268721929</v>
+        <v>1.063407650574024</v>
       </c>
       <c r="N7">
-        <v>0.9272792391914572</v>
+        <v>1.020699436914298</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.8551350914207768</v>
+        <v>1.025884798791697</v>
       </c>
       <c r="D8">
-        <v>0.8683217187756859</v>
+        <v>1.038511525154005</v>
       </c>
       <c r="E8">
-        <v>0.8755055546903524</v>
+        <v>1.038042300216305</v>
       </c>
       <c r="F8">
-        <v>0.8673477648979779</v>
+        <v>1.047497584404245</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.059703620088095</v>
+      </c>
       <c r="J8">
-        <v>0.8819802465864562</v>
+        <v>1.046767885529202</v>
       </c>
       <c r="K8">
-        <v>0.8816398633937438</v>
+        <v>1.049193927839101</v>
       </c>
       <c r="L8">
-        <v>0.8886853530826562</v>
+        <v>1.048730488644838</v>
       </c>
       <c r="M8">
-        <v>0.8806848973287803</v>
+        <v>1.058070427051713</v>
       </c>
       <c r="N8">
-        <v>0.8832327597011572</v>
+        <v>1.019049485078021</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.8551350914207768</v>
+        <v>1.012573837935205</v>
       </c>
       <c r="D9">
-        <v>0.8683217187756859</v>
+        <v>1.027170903220395</v>
       </c>
       <c r="E9">
-        <v>0.8755055546903524</v>
+        <v>1.026882860152163</v>
       </c>
       <c r="F9">
-        <v>0.8673477648979779</v>
+        <v>1.03561093050729</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.055592133082795</v>
+      </c>
       <c r="J9">
-        <v>0.8819802465864562</v>
+        <v>1.037690263288727</v>
       </c>
       <c r="K9">
-        <v>0.8816398633937438</v>
+        <v>1.039838013071046</v>
       </c>
       <c r="L9">
-        <v>0.8886853530826562</v>
+        <v>1.039554335091265</v>
       </c>
       <c r="M9">
-        <v>0.8806848973287803</v>
+        <v>1.048151508052278</v>
       </c>
       <c r="N9">
-        <v>0.8832327597011572</v>
+        <v>1.015972780150461</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.8551350914207768</v>
+        <v>1.003178367134292</v>
       </c>
       <c r="D10">
-        <v>0.8683217187756859</v>
+        <v>1.019199418752798</v>
       </c>
       <c r="E10">
-        <v>0.8755055546903524</v>
+        <v>1.019043021994854</v>
       </c>
       <c r="F10">
-        <v>0.8673477648979779</v>
+        <v>1.027257475227126</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.05261048413282</v>
+      </c>
       <c r="J10">
-        <v>0.8819802465864562</v>
+        <v>1.031266446693158</v>
       </c>
       <c r="K10">
-        <v>0.8816398633937438</v>
+        <v>1.033230463725787</v>
       </c>
       <c r="L10">
-        <v>0.8886853530826562</v>
+        <v>1.033076755433187</v>
       </c>
       <c r="M10">
-        <v>0.8806848973287803</v>
+        <v>1.041151430563982</v>
       </c>
       <c r="N10">
-        <v>0.8832327597011572</v>
+        <v>1.013794765425687</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.8551350914207768</v>
+        <v>0.9989711606306655</v>
       </c>
       <c r="D11">
-        <v>0.8683217187756859</v>
+        <v>1.015638716299294</v>
       </c>
       <c r="E11">
-        <v>0.8755055546903524</v>
+        <v>1.015542199246865</v>
       </c>
       <c r="F11">
-        <v>0.8673477648979779</v>
+        <v>1.023526582855514</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.05125733539058</v>
+      </c>
       <c r="J11">
-        <v>0.8819802465864562</v>
+        <v>1.028386803247917</v>
       </c>
       <c r="K11">
-        <v>0.8816398633937438</v>
+        <v>1.030271615066706</v>
       </c>
       <c r="L11">
-        <v>0.8886853530826562</v>
+        <v>1.030176846233094</v>
       </c>
       <c r="M11">
-        <v>0.8806848973287803</v>
+        <v>1.038018054396666</v>
       </c>
       <c r="N11">
-        <v>0.8832327597011572</v>
+        <v>1.012818328877087</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.8551350914207768</v>
+        <v>0.9973861199938928</v>
       </c>
       <c r="D12">
-        <v>0.8683217187756859</v>
+        <v>1.014298662076366</v>
       </c>
       <c r="E12">
-        <v>0.8755055546903524</v>
+        <v>1.014224847489196</v>
       </c>
       <c r="F12">
-        <v>0.8673477648979779</v>
+        <v>1.022122542217523</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.050744921406596</v>
+      </c>
       <c r="J12">
-        <v>0.8819802465864562</v>
+        <v>1.027301517373154</v>
       </c>
       <c r="K12">
-        <v>0.8816398633937438</v>
+        <v>1.029156955350931</v>
       </c>
       <c r="L12">
-        <v>0.8886853530826562</v>
+        <v>1.029084503575759</v>
       </c>
       <c r="M12">
-        <v>0.8806848973287803</v>
+        <v>1.036837837417684</v>
       </c>
       <c r="N12">
-        <v>0.8832327597011572</v>
+        <v>1.012450323502685</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.8551350914207768</v>
+        <v>0.9977271499034069</v>
       </c>
       <c r="D13">
-        <v>0.8683217187756859</v>
+        <v>1.014586916233798</v>
       </c>
       <c r="E13">
-        <v>0.8755055546903524</v>
+        <v>1.01450821056791</v>
       </c>
       <c r="F13">
-        <v>0.8673477648979779</v>
+        <v>1.022424557386371</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.050855287127147</v>
+      </c>
       <c r="J13">
-        <v>0.8819802465864562</v>
+        <v>1.027535039122579</v>
       </c>
       <c r="K13">
-        <v>0.8816398633937438</v>
+        <v>1.029396775890629</v>
       </c>
       <c r="L13">
-        <v>0.8886853530826562</v>
+        <v>1.029319517412475</v>
       </c>
       <c r="M13">
-        <v>0.8806848973287803</v>
+        <v>1.03709175400661</v>
       </c>
       <c r="N13">
-        <v>0.8832327597011572</v>
+        <v>1.012529507522176</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.8551350914207768</v>
+        <v>0.9988406042367026</v>
       </c>
       <c r="D14">
-        <v>0.8683217187756859</v>
+        <v>1.015528309539262</v>
       </c>
       <c r="E14">
-        <v>0.8755055546903524</v>
+        <v>1.015433659512414</v>
       </c>
       <c r="F14">
-        <v>0.8673477648979779</v>
+        <v>1.023410902976872</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.051215181744449</v>
+      </c>
       <c r="J14">
-        <v>0.8819802465864562</v>
+        <v>1.028297418214122</v>
       </c>
       <c r="K14">
-        <v>0.8816398633937438</v>
+        <v>1.030179801071454</v>
       </c>
       <c r="L14">
-        <v>0.8886853530826562</v>
+        <v>1.030086868167663</v>
       </c>
       <c r="M14">
-        <v>0.8806848973287803</v>
+        <v>1.037920836581313</v>
       </c>
       <c r="N14">
-        <v>0.8832327597011572</v>
+        <v>1.012788019682318</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.8551350914207768</v>
+        <v>0.9995236407798468</v>
       </c>
       <c r="D15">
-        <v>0.8683217187756859</v>
+        <v>1.016105986882758</v>
       </c>
       <c r="E15">
-        <v>0.8755055546903524</v>
+        <v>1.016001574921105</v>
       </c>
       <c r="F15">
-        <v>0.8673477648979779</v>
+        <v>1.024016173265357</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.05143561215837</v>
+      </c>
       <c r="J15">
-        <v>0.8819802465864562</v>
+        <v>1.028765041357673</v>
       </c>
       <c r="K15">
-        <v>0.8816398633937438</v>
+        <v>1.030660150917591</v>
       </c>
       <c r="L15">
-        <v>0.8886853530826562</v>
+        <v>1.030557617477817</v>
       </c>
       <c r="M15">
-        <v>0.8806848973287803</v>
+        <v>1.038429465775039</v>
       </c>
       <c r="N15">
-        <v>0.8832327597011572</v>
+        <v>1.012946583935802</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.8551350914207768</v>
+        <v>1.003454539989512</v>
       </c>
       <c r="D16">
-        <v>0.8683217187756859</v>
+        <v>1.019433344724161</v>
       </c>
       <c r="E16">
-        <v>0.8755055546903524</v>
+        <v>1.019273036904502</v>
       </c>
       <c r="F16">
-        <v>0.8673477648979779</v>
+        <v>1.027502590961012</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.052698941263134</v>
+      </c>
       <c r="J16">
-        <v>0.8819802465864562</v>
+        <v>1.031455415698996</v>
       </c>
       <c r="K16">
-        <v>0.8816398633937438</v>
+        <v>1.033424696200312</v>
       </c>
       <c r="L16">
-        <v>0.8886853530826562</v>
+        <v>1.033267134403945</v>
       </c>
       <c r="M16">
-        <v>0.8806848973287803</v>
+        <v>1.041357146029904</v>
       </c>
       <c r="N16">
-        <v>0.8832327597011572</v>
+        <v>1.013858840467757</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.8551350914207768</v>
+        <v>1.005882131391012</v>
       </c>
       <c r="D17">
-        <v>0.8683217187756859</v>
+        <v>1.021490596306286</v>
       </c>
       <c r="E17">
-        <v>0.8755055546903524</v>
+        <v>1.021296015699955</v>
       </c>
       <c r="F17">
-        <v>0.8673477648979779</v>
+        <v>1.029658299052637</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.053474456989989</v>
+      </c>
       <c r="J17">
-        <v>0.8819802465864562</v>
+        <v>1.033116129631233</v>
       </c>
       <c r="K17">
-        <v>0.8816398633937438</v>
+        <v>1.035132025462821</v>
       </c>
       <c r="L17">
-        <v>0.8886853530826562</v>
+        <v>1.034940675008818</v>
       </c>
       <c r="M17">
-        <v>0.8806848973287803</v>
+        <v>1.043165554112229</v>
       </c>
       <c r="N17">
-        <v>0.8832327597011572</v>
+        <v>1.01442194178397</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.8551350914207768</v>
+        <v>1.007284804942348</v>
       </c>
       <c r="D18">
-        <v>0.8683217187756859</v>
+        <v>1.022680117081462</v>
       </c>
       <c r="E18">
-        <v>0.8755055546903524</v>
+        <v>1.022465821175519</v>
       </c>
       <c r="F18">
-        <v>0.8673477648979779</v>
+        <v>1.03090478888553</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.053920846564938</v>
+      </c>
       <c r="J18">
-        <v>0.8819802465864562</v>
+        <v>1.034075398199068</v>
       </c>
       <c r="K18">
-        <v>0.8816398633937438</v>
+        <v>1.0361185184002</v>
       </c>
       <c r="L18">
-        <v>0.8886853530826562</v>
+        <v>1.035907714648037</v>
       </c>
       <c r="M18">
-        <v>0.8806848973287803</v>
+        <v>1.044210567835807</v>
       </c>
       <c r="N18">
-        <v>0.8832327597011572</v>
+        <v>1.014747194151414</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.8551350914207768</v>
+        <v>1.007760865870069</v>
       </c>
       <c r="D19">
-        <v>0.8683217187756859</v>
+        <v>1.023083973400534</v>
       </c>
       <c r="E19">
-        <v>0.8755055546903524</v>
+        <v>1.022863000986392</v>
       </c>
       <c r="F19">
-        <v>0.8673477648979779</v>
+        <v>1.031327993785691</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.054072057257549</v>
+      </c>
       <c r="J19">
-        <v>0.8819802465864562</v>
+        <v>1.03440091665237</v>
       </c>
       <c r="K19">
-        <v>0.8816398633937438</v>
+        <v>1.036453325691889</v>
       </c>
       <c r="L19">
-        <v>0.8886853530826562</v>
+        <v>1.036235931423559</v>
       </c>
       <c r="M19">
-        <v>0.8806848973287803</v>
+        <v>1.044565256420854</v>
       </c>
       <c r="N19">
-        <v>0.8832327597011572</v>
+        <v>1.01485756366775</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.8551350914207768</v>
+        <v>1.00562305934599</v>
       </c>
       <c r="D20">
-        <v>0.8683217187756859</v>
+        <v>1.021270959938895</v>
       </c>
       <c r="E20">
-        <v>0.8755055546903524</v>
+        <v>1.021080027791749</v>
       </c>
       <c r="F20">
-        <v>0.8673477648979779</v>
+        <v>1.0294281470541</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.053391870764821</v>
+      </c>
       <c r="J20">
-        <v>0.8819802465864562</v>
+        <v>1.032938929202442</v>
       </c>
       <c r="K20">
-        <v>0.8816398633937438</v>
+        <v>1.034949820133992</v>
       </c>
       <c r="L20">
-        <v>0.8886853530826562</v>
+        <v>1.034762068332302</v>
       </c>
       <c r="M20">
-        <v>0.8806848973287803</v>
+        <v>1.042972549473264</v>
       </c>
       <c r="N20">
-        <v>0.8832327597011572</v>
+        <v>1.014361858940291</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.8551350914207768</v>
+        <v>0.9985133473002682</v>
       </c>
       <c r="D21">
-        <v>0.8683217187756859</v>
+        <v>1.015251583507151</v>
       </c>
       <c r="E21">
-        <v>0.8755055546903524</v>
+        <v>1.015161615744302</v>
       </c>
       <c r="F21">
-        <v>0.8673477648979779</v>
+        <v>1.023120961304668</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.051109476086885</v>
+      </c>
       <c r="J21">
-        <v>0.8819802465864562</v>
+        <v>1.028073356619868</v>
       </c>
       <c r="K21">
-        <v>0.8816398633937438</v>
+        <v>1.029949658487686</v>
       </c>
       <c r="L21">
-        <v>0.8886853530826562</v>
+        <v>1.029861329390836</v>
       </c>
       <c r="M21">
-        <v>0.8806848973287803</v>
+        <v>1.037677151772683</v>
       </c>
       <c r="N21">
-        <v>0.8832327597011572</v>
+        <v>1.012712043545892</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.8551350914207768</v>
+        <v>0.9939133830083868</v>
       </c>
       <c r="D22">
-        <v>0.8683217187756859</v>
+        <v>1.011365394884341</v>
       </c>
       <c r="E22">
-        <v>0.8755055546903524</v>
+        <v>1.011341587693837</v>
       </c>
       <c r="F22">
-        <v>0.8673477648979779</v>
+        <v>1.01904933082996</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.049617514481643</v>
+      </c>
       <c r="J22">
-        <v>0.8819802465864562</v>
+        <v>1.024923067999338</v>
       </c>
       <c r="K22">
-        <v>0.8816398633937438</v>
+        <v>1.02671501405911</v>
       </c>
       <c r="L22">
-        <v>0.8886853530826562</v>
+        <v>1.026691664730176</v>
       </c>
       <c r="M22">
-        <v>0.8806848973287803</v>
+        <v>1.034252632319655</v>
       </c>
       <c r="N22">
-        <v>0.8832327597011572</v>
+        <v>1.011643826959547</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.8551350914207768</v>
+        <v>0.9963647263961171</v>
       </c>
       <c r="D23">
-        <v>0.8683217187756859</v>
+        <v>1.013435548557203</v>
       </c>
       <c r="E23">
-        <v>0.8755055546903524</v>
+        <v>1.013376404137779</v>
       </c>
       <c r="F23">
-        <v>0.8673477648979779</v>
+        <v>1.021218233687758</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.050413995155781</v>
+      </c>
       <c r="J23">
-        <v>0.8819802465864562</v>
+        <v>1.026602061140725</v>
       </c>
       <c r="K23">
-        <v>0.8816398633937438</v>
+        <v>1.028438702839148</v>
       </c>
       <c r="L23">
-        <v>0.8886853530826562</v>
+        <v>1.028380663736659</v>
       </c>
       <c r="M23">
-        <v>0.8806848973287803</v>
+        <v>1.03607739610699</v>
       </c>
       <c r="N23">
-        <v>0.8832327597011572</v>
+        <v>1.012213147603348</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.8551350914207768</v>
+        <v>1.005740163845445</v>
       </c>
       <c r="D24">
-        <v>0.8683217187756859</v>
+        <v>1.021370236340607</v>
       </c>
       <c r="E24">
-        <v>0.8755055546903524</v>
+        <v>1.021177654762731</v>
       </c>
       <c r="F24">
-        <v>0.8673477648979779</v>
+        <v>1.029532176431529</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.053429206295144</v>
+      </c>
       <c r="J24">
-        <v>0.8819802465864562</v>
+        <v>1.033019027422761</v>
       </c>
       <c r="K24">
-        <v>0.8816398633937438</v>
+        <v>1.035032179746362</v>
       </c>
       <c r="L24">
-        <v>0.8886853530826562</v>
+        <v>1.034842801082213</v>
       </c>
       <c r="M24">
-        <v>0.8806848973287803</v>
+        <v>1.043059790175534</v>
       </c>
       <c r="N24">
-        <v>0.8832327597011572</v>
+        <v>1.014389017642554</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.8551350914207768</v>
+        <v>1.01610217988387</v>
       </c>
       <c r="D25">
-        <v>0.8683217187756859</v>
+        <v>1.030171563346679</v>
       </c>
       <c r="E25">
-        <v>0.8755055546903524</v>
+        <v>1.029834860660555</v>
       </c>
       <c r="F25">
-        <v>0.8673477648979779</v>
+        <v>1.038755747641971</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.056695899101427</v>
+      </c>
       <c r="J25">
-        <v>0.8819802465864562</v>
+        <v>1.040099532768018</v>
       </c>
       <c r="K25">
-        <v>0.8816398633937438</v>
+        <v>1.042318887526643</v>
       </c>
       <c r="L25">
-        <v>0.8886853530826562</v>
+        <v>1.041987032986833</v>
       </c>
       <c r="M25">
-        <v>0.8806848973287803</v>
+        <v>1.050780810592874</v>
       </c>
       <c r="N25">
-        <v>0.8832327597011572</v>
+        <v>1.016789524225265</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.023995765587499</v>
+        <v>1.057237514097443</v>
       </c>
       <c r="D2">
-        <v>1.036898721238467</v>
+        <v>1.063801908004986</v>
       </c>
       <c r="E2">
-        <v>1.036454801746773</v>
+        <v>1.063362337245781</v>
       </c>
       <c r="F2">
-        <v>1.045806917472366</v>
+        <v>1.073856695906644</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059129295298154</v>
+        <v>1.045622341484798</v>
       </c>
       <c r="J2">
-        <v>1.045481712009823</v>
+        <v>1.062234981983867</v>
       </c>
       <c r="K2">
-        <v>1.047866862348794</v>
+        <v>1.066519563723911</v>
       </c>
       <c r="L2">
-        <v>1.047428592568188</v>
+        <v>1.066081181700343</v>
       </c>
       <c r="M2">
-        <v>1.056662948424173</v>
+        <v>1.076547447634795</v>
       </c>
       <c r="N2">
-        <v>1.018613677021082</v>
+        <v>1.024472112371567</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.029532276024458</v>
+        <v>1.058389387893265</v>
       </c>
       <c r="D3">
-        <v>1.041628852255732</v>
+        <v>1.064831279183767</v>
       </c>
       <c r="E3">
-        <v>1.041111170914964</v>
+        <v>1.064378952264376</v>
       </c>
       <c r="F3">
-        <v>1.050765625745626</v>
+        <v>1.074940615255715</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.060803017324234</v>
+        <v>1.045867685861676</v>
       </c>
       <c r="J3">
-        <v>1.049249003804606</v>
+        <v>1.063038272645739</v>
       </c>
       <c r="K3">
-        <v>1.051755412814368</v>
+        <v>1.067363478996863</v>
       </c>
       <c r="L3">
-        <v>1.051243720496022</v>
+        <v>1.066912286670341</v>
       </c>
       <c r="M3">
-        <v>1.060787680883772</v>
+        <v>1.077447725449697</v>
       </c>
       <c r="N3">
-        <v>1.019890042619457</v>
+        <v>1.024741979345802</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.033030614600081</v>
+        <v>1.059134532509515</v>
       </c>
       <c r="D4">
-        <v>1.044622727341738</v>
+        <v>1.065497445981669</v>
       </c>
       <c r="E4">
-        <v>1.044059090560938</v>
+        <v>1.065036930321282</v>
       </c>
       <c r="F4">
-        <v>1.053904528642867</v>
+        <v>1.075642133877135</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.061844916999683</v>
+        <v>1.046024458939281</v>
       </c>
       <c r="J4">
-        <v>1.051625538380819</v>
+        <v>1.063557293716238</v>
       </c>
       <c r="K4">
-        <v>1.054210848865712</v>
+        <v>1.067909034190959</v>
       </c>
       <c r="L4">
-        <v>1.053653323909004</v>
+        <v>1.067449615381198</v>
       </c>
       <c r="M4">
-        <v>1.063393153306197</v>
+        <v>1.07802981516089</v>
       </c>
       <c r="N4">
-        <v>1.020694961267002</v>
+        <v>1.024916265018928</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034482004313874</v>
+        <v>1.059447745538105</v>
       </c>
       <c r="D5">
-        <v>1.045865987981074</v>
+        <v>1.065777525366155</v>
       </c>
       <c r="E5">
-        <v>1.045283439901023</v>
+        <v>1.065313582761335</v>
       </c>
       <c r="F5">
-        <v>1.05520810014686</v>
+        <v>1.075937088474755</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.062273363697739</v>
+        <v>1.046089891943141</v>
       </c>
       <c r="J5">
-        <v>1.052610535229578</v>
+        <v>1.063775308047259</v>
       </c>
       <c r="K5">
-        <v>1.055229125812942</v>
+        <v>1.068138262631847</v>
       </c>
       <c r="L5">
-        <v>1.054652720137723</v>
+        <v>1.067675400381879</v>
       </c>
       <c r="M5">
-        <v>1.064473864919815</v>
+        <v>1.078274418055363</v>
       </c>
       <c r="N5">
-        <v>1.021028506595662</v>
+        <v>1.024989454215866</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034724589915891</v>
+        <v>1.059500332724777</v>
       </c>
       <c r="D6">
-        <v>1.04607385374083</v>
+        <v>1.06582455327257</v>
       </c>
       <c r="E6">
-        <v>1.04548815386604</v>
+        <v>1.065360036182406</v>
       </c>
       <c r="F6">
-        <v>1.055426054570578</v>
+        <v>1.075986614775712</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.062344748369625</v>
+        <v>1.046100850610201</v>
       </c>
       <c r="J6">
-        <v>1.052775108973932</v>
+        <v>1.063811902939197</v>
       </c>
       <c r="K6">
-        <v>1.055399294016224</v>
+        <v>1.068176743890559</v>
       </c>
       <c r="L6">
-        <v>1.054819740505481</v>
+        <v>1.067713304349219</v>
       </c>
       <c r="M6">
-        <v>1.064654479372124</v>
+        <v>1.078315481651501</v>
       </c>
       <c r="N6">
-        <v>1.021084231366822</v>
+        <v>1.025001738283833</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.033050082954818</v>
+        <v>1.059138717856104</v>
       </c>
       <c r="D7">
-        <v>1.044639399408009</v>
+        <v>1.065501188326083</v>
       </c>
       <c r="E7">
-        <v>1.044075508349549</v>
+        <v>1.065040626813443</v>
       </c>
       <c r="F7">
-        <v>1.053922009136248</v>
+        <v>1.075646074932568</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.061850679169968</v>
+        <v>1.04602533512249</v>
       </c>
       <c r="J7">
-        <v>1.051638754659058</v>
+        <v>1.063560207549765</v>
       </c>
       <c r="K7">
-        <v>1.054224509396056</v>
+        <v>1.067912097635539</v>
       </c>
       <c r="L7">
-        <v>1.053666730650327</v>
+        <v>1.067452632755555</v>
       </c>
       <c r="M7">
-        <v>1.063407650574024</v>
+        <v>1.078033083979415</v>
       </c>
       <c r="N7">
-        <v>1.020699436914298</v>
+        <v>1.024917243292858</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.025884798791697</v>
+        <v>1.057626836081641</v>
       </c>
       <c r="D8">
-        <v>1.038511525154005</v>
+        <v>1.064149769283717</v>
       </c>
       <c r="E8">
-        <v>1.038042300216305</v>
+        <v>1.06370587396442</v>
       </c>
       <c r="F8">
-        <v>1.047497584404245</v>
+        <v>1.074222980511772</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059703620088095</v>
+        <v>1.045705666910257</v>
       </c>
       <c r="J8">
-        <v>1.046767885529202</v>
+        <v>1.062506615677772</v>
       </c>
       <c r="K8">
-        <v>1.049193927839101</v>
+        <v>1.066804875471917</v>
       </c>
       <c r="L8">
-        <v>1.048730488644838</v>
+        <v>1.066362151162884</v>
       </c>
       <c r="M8">
-        <v>1.058070427051713</v>
+        <v>1.076851794064369</v>
       </c>
       <c r="N8">
-        <v>1.019049485078021</v>
+        <v>1.024563384821093</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.012573837935205</v>
+        <v>1.054961176629299</v>
       </c>
       <c r="D9">
-        <v>1.027170903220395</v>
+        <v>1.061769114183996</v>
       </c>
       <c r="E9">
-        <v>1.026882860152163</v>
+        <v>1.061355089205958</v>
       </c>
       <c r="F9">
-        <v>1.03561093050729</v>
+        <v>1.071716448565534</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055592133082795</v>
+        <v>1.045127201720915</v>
       </c>
       <c r="J9">
-        <v>1.037690263288727</v>
+        <v>1.060644207526359</v>
       </c>
       <c r="K9">
-        <v>1.039838013071046</v>
+        <v>1.064849859400318</v>
       </c>
       <c r="L9">
-        <v>1.039554335091265</v>
+        <v>1.064437114892364</v>
       </c>
       <c r="M9">
-        <v>1.048151508052278</v>
+        <v>1.07476675369615</v>
       </c>
       <c r="N9">
-        <v>1.015972780150461</v>
+        <v>1.023937264458154</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.003178367134292</v>
+        <v>1.053182983392495</v>
       </c>
       <c r="D10">
-        <v>1.019199418752798</v>
+        <v>1.060182478382355</v>
       </c>
       <c r="E10">
-        <v>1.019043021994854</v>
+        <v>1.059788707427233</v>
       </c>
       <c r="F10">
-        <v>1.027257475227126</v>
+        <v>1.070046178876109</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.05261048413282</v>
+        <v>1.04473136322312</v>
       </c>
       <c r="J10">
-        <v>1.031266446693158</v>
+        <v>1.059398654043958</v>
       </c>
       <c r="K10">
-        <v>1.033230463725787</v>
+        <v>1.0635438439393</v>
       </c>
       <c r="L10">
-        <v>1.033076755433187</v>
+        <v>1.063151410720979</v>
       </c>
       <c r="M10">
-        <v>1.041151430563982</v>
+        <v>1.073374387683118</v>
       </c>
       <c r="N10">
-        <v>1.013794765425687</v>
+        <v>1.023518116259758</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9989711606306655</v>
+        <v>1.052412734387046</v>
       </c>
       <c r="D11">
-        <v>1.015638716299294</v>
+        <v>1.05949555400821</v>
       </c>
       <c r="E11">
-        <v>1.015542199246865</v>
+        <v>1.059110634633653</v>
       </c>
       <c r="F11">
-        <v>1.023526582855514</v>
+        <v>1.069323107136654</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05125733539058</v>
+        <v>1.044557542794952</v>
       </c>
       <c r="J11">
-        <v>1.028386803247917</v>
+        <v>1.058858374129905</v>
       </c>
       <c r="K11">
-        <v>1.030271615066706</v>
+        <v>1.062977686600033</v>
       </c>
       <c r="L11">
-        <v>1.030176846233094</v>
+        <v>1.062594125777811</v>
       </c>
       <c r="M11">
-        <v>1.038018054396666</v>
+        <v>1.072770918613993</v>
       </c>
       <c r="N11">
-        <v>1.012818328877087</v>
+        <v>1.023336208158461</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9973861199938928</v>
+        <v>1.052126586286614</v>
       </c>
       <c r="D12">
-        <v>1.014298662076366</v>
+        <v>1.059240414138964</v>
       </c>
       <c r="E12">
-        <v>1.014224847489196</v>
+        <v>1.058858794928248</v>
       </c>
       <c r="F12">
-        <v>1.022122542217523</v>
+        <v>1.069054550508177</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.050744921406596</v>
+        <v>1.044492614528512</v>
       </c>
       <c r="J12">
-        <v>1.027301517373154</v>
+        <v>1.058657547279299</v>
       </c>
       <c r="K12">
-        <v>1.029156955350931</v>
+        <v>1.062767293287819</v>
       </c>
       <c r="L12">
-        <v>1.029084503575759</v>
+        <v>1.062387039741583</v>
       </c>
       <c r="M12">
-        <v>1.036837837417684</v>
+        <v>1.07254667788766</v>
       </c>
       <c r="N12">
-        <v>1.012450323502685</v>
+        <v>1.023268577048477</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9977271499034069</v>
+        <v>1.052187968007258</v>
       </c>
       <c r="D13">
-        <v>1.014586916233798</v>
+        <v>1.059295141862269</v>
       </c>
       <c r="E13">
-        <v>1.01450821056791</v>
+        <v>1.058912814198051</v>
       </c>
       <c r="F13">
-        <v>1.022424557386371</v>
+        <v>1.069112155720725</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.050855287127147</v>
+        <v>1.044506558317995</v>
       </c>
       <c r="J13">
-        <v>1.027535039122579</v>
+        <v>1.058700631792995</v>
       </c>
       <c r="K13">
-        <v>1.029396775890629</v>
+        <v>1.06281242777735</v>
       </c>
       <c r="L13">
-        <v>1.029319517412475</v>
+        <v>1.062431464280418</v>
       </c>
       <c r="M13">
-        <v>1.03709175400661</v>
+        <v>1.072594782159316</v>
       </c>
       <c r="N13">
-        <v>1.012529507522176</v>
+        <v>1.023283086974161</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9988406042367026</v>
+        <v>1.05238908218725</v>
       </c>
       <c r="D14">
-        <v>1.015528309539262</v>
+        <v>1.059474463775634</v>
       </c>
       <c r="E14">
-        <v>1.015433659512414</v>
+        <v>1.059089816942564</v>
       </c>
       <c r="F14">
-        <v>1.023410902976872</v>
+        <v>1.069300907667145</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051215181744449</v>
+        <v>1.04455218322242</v>
       </c>
       <c r="J14">
-        <v>1.028297418214122</v>
+        <v>1.058841776636791</v>
       </c>
       <c r="K14">
-        <v>1.030179801071454</v>
+        <v>1.062960297410434</v>
       </c>
       <c r="L14">
-        <v>1.030086868167663</v>
+        <v>1.062577009730356</v>
       </c>
       <c r="M14">
-        <v>1.037920836581313</v>
+        <v>1.072752384551566</v>
       </c>
       <c r="N14">
-        <v>1.012788019682318</v>
+        <v>1.023330619022255</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9995236407798468</v>
+        <v>1.052512989490719</v>
       </c>
       <c r="D15">
-        <v>1.016105986882758</v>
+        <v>1.059584951821538</v>
       </c>
       <c r="E15">
-        <v>1.016001574921105</v>
+        <v>1.059198877702547</v>
       </c>
       <c r="F15">
-        <v>1.024016173265357</v>
+        <v>1.069417207189319</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.05143561215837</v>
+        <v>1.044580246046155</v>
       </c>
       <c r="J15">
-        <v>1.028765041357673</v>
+        <v>1.0589287216898</v>
       </c>
       <c r="K15">
-        <v>1.030660150917591</v>
+        <v>1.063051391867317</v>
       </c>
       <c r="L15">
-        <v>1.030557617477817</v>
+        <v>1.06266667372909</v>
       </c>
       <c r="M15">
-        <v>1.038429465775039</v>
+        <v>1.072849477249647</v>
       </c>
       <c r="N15">
-        <v>1.012946583935802</v>
+        <v>1.023359896821392</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.003454539989512</v>
+        <v>1.053234096279044</v>
       </c>
       <c r="D16">
-        <v>1.019433344724161</v>
+        <v>1.060228069342016</v>
       </c>
       <c r="E16">
-        <v>1.019273036904502</v>
+        <v>1.059833712657498</v>
       </c>
       <c r="F16">
-        <v>1.027502590961012</v>
+        <v>1.070094170218979</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052698941263134</v>
+        <v>1.044742848124455</v>
       </c>
       <c r="J16">
-        <v>1.031455415698996</v>
+        <v>1.059434490642463</v>
       </c>
       <c r="K16">
-        <v>1.033424696200312</v>
+        <v>1.063581404324991</v>
       </c>
       <c r="L16">
-        <v>1.033267134403945</v>
+        <v>1.063188383910094</v>
       </c>
       <c r="M16">
-        <v>1.041357146029904</v>
+        <v>1.073414425982969</v>
       </c>
       <c r="N16">
-        <v>1.013858840467757</v>
+        <v>1.023530180165328</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.005882131391012</v>
+        <v>1.053686351731312</v>
       </c>
       <c r="D17">
-        <v>1.021490596306286</v>
+        <v>1.060631506229646</v>
       </c>
       <c r="E17">
-        <v>1.021296015699955</v>
+        <v>1.060231975957163</v>
       </c>
       <c r="F17">
-        <v>1.029658299052637</v>
+        <v>1.070518855323767</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053474456989989</v>
+        <v>1.044844196222591</v>
       </c>
       <c r="J17">
-        <v>1.033116129631233</v>
+        <v>1.05975149220772</v>
       </c>
       <c r="K17">
-        <v>1.035132025462821</v>
+        <v>1.063913694354835</v>
       </c>
       <c r="L17">
-        <v>1.034940675008818</v>
+        <v>1.063515486906575</v>
       </c>
       <c r="M17">
-        <v>1.043165554112229</v>
+        <v>1.073768651674345</v>
       </c>
       <c r="N17">
-        <v>1.01442194178397</v>
+        <v>1.023636883441805</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.007284804942348</v>
+        <v>1.053950117796511</v>
       </c>
       <c r="D18">
-        <v>1.022680117081462</v>
+        <v>1.06086683376537</v>
       </c>
       <c r="E18">
-        <v>1.022465821175519</v>
+        <v>1.060464293682082</v>
       </c>
       <c r="F18">
-        <v>1.03090478888553</v>
+        <v>1.070766583019036</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.053920846564938</v>
+        <v>1.044903077388844</v>
       </c>
       <c r="J18">
-        <v>1.034075398199068</v>
+        <v>1.059936302519672</v>
       </c>
       <c r="K18">
-        <v>1.0361185184002</v>
+        <v>1.06410745140279</v>
       </c>
       <c r="L18">
-        <v>1.035907714648037</v>
+        <v>1.063706225918551</v>
       </c>
       <c r="M18">
-        <v>1.044210567835807</v>
+        <v>1.07397521100843</v>
       </c>
       <c r="N18">
-        <v>1.014747194151414</v>
+        <v>1.023699081704789</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.007760865870069</v>
+        <v>1.054040050687642</v>
       </c>
       <c r="D19">
-        <v>1.023083973400534</v>
+        <v>1.060947076021412</v>
       </c>
       <c r="E19">
-        <v>1.022863000986392</v>
+        <v>1.060543511001181</v>
       </c>
       <c r="F19">
-        <v>1.031327993785691</v>
+        <v>1.070851054501352</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054072057257549</v>
+        <v>1.044923114747606</v>
       </c>
       <c r="J19">
-        <v>1.03440091665237</v>
+        <v>1.059999302584356</v>
       </c>
       <c r="K19">
-        <v>1.036453325691889</v>
+        <v>1.064173507030428</v>
       </c>
       <c r="L19">
-        <v>1.036235931423559</v>
+        <v>1.063771253740418</v>
       </c>
       <c r="M19">
-        <v>1.044565256420854</v>
+        <v>1.074045633171166</v>
       </c>
       <c r="N19">
-        <v>1.01485756366775</v>
+        <v>1.023720282931967</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.00562305934599</v>
+        <v>1.053637831791868</v>
       </c>
       <c r="D20">
-        <v>1.021270959938895</v>
+        <v>1.060588220277616</v>
       </c>
       <c r="E20">
-        <v>1.021080027791749</v>
+        <v>1.060189244269235</v>
       </c>
       <c r="F20">
-        <v>1.0294281470541</v>
+        <v>1.070473288973862</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053391870764821</v>
+        <v>1.044833346679647</v>
       </c>
       <c r="J20">
-        <v>1.032938929202442</v>
+        <v>1.059717490391158</v>
       </c>
       <c r="K20">
-        <v>1.034949820133992</v>
+        <v>1.063878049206674</v>
       </c>
       <c r="L20">
-        <v>1.034762068332302</v>
+        <v>1.063480397504818</v>
       </c>
       <c r="M20">
-        <v>1.042972549473264</v>
+        <v>1.073730652252571</v>
       </c>
       <c r="N20">
-        <v>1.014361858940291</v>
+        <v>1.023625439323381</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9985133473002682</v>
+        <v>1.052329860280459</v>
       </c>
       <c r="D21">
-        <v>1.015251583507151</v>
+        <v>1.059421657547417</v>
       </c>
       <c r="E21">
-        <v>1.015161615744302</v>
+        <v>1.059037693311988</v>
       </c>
       <c r="F21">
-        <v>1.023120961304668</v>
+        <v>1.069245324253953</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051109476086885</v>
+        <v>1.044538757863605</v>
       </c>
       <c r="J21">
-        <v>1.028073356619868</v>
+        <v>1.058800216945642</v>
       </c>
       <c r="K21">
-        <v>1.029949658487686</v>
+        <v>1.062916756178256</v>
       </c>
       <c r="L21">
-        <v>1.029861329390836</v>
+        <v>1.062534152589683</v>
       </c>
       <c r="M21">
-        <v>1.037677151772683</v>
+        <v>1.072705976937923</v>
       </c>
       <c r="N21">
-        <v>1.012712043545892</v>
+        <v>1.023316623740691</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9939133830083868</v>
+        <v>1.051507235359358</v>
       </c>
       <c r="D22">
-        <v>1.011365394884341</v>
+        <v>1.058688276482649</v>
       </c>
       <c r="E22">
-        <v>1.011341587693837</v>
+        <v>1.058313821893855</v>
       </c>
       <c r="F22">
-        <v>1.01904933082996</v>
+        <v>1.068473395055661</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.049617514481643</v>
+        <v>1.044351434345269</v>
       </c>
       <c r="J22">
-        <v>1.024923067999338</v>
+        <v>1.058222664048588</v>
       </c>
       <c r="K22">
-        <v>1.02671501405911</v>
+        <v>1.062311790076006</v>
       </c>
       <c r="L22">
-        <v>1.026691664730176</v>
+        <v>1.06193871538683</v>
       </c>
       <c r="M22">
-        <v>1.034252632319655</v>
+        <v>1.072061228289563</v>
       </c>
       <c r="N22">
-        <v>1.011643826959547</v>
+        <v>1.023122098377084</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9963647263961171</v>
+        <v>1.051943348658461</v>
       </c>
       <c r="D23">
-        <v>1.013435548557203</v>
+        <v>1.059077047942968</v>
       </c>
       <c r="E23">
-        <v>1.013376404137779</v>
+        <v>1.058697545348018</v>
       </c>
       <c r="F23">
-        <v>1.021218233687758</v>
+        <v>1.068882596149521</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.050413995155781</v>
+        <v>1.044450937534534</v>
       </c>
       <c r="J23">
-        <v>1.026602061140725</v>
+        <v>1.058528914312804</v>
       </c>
       <c r="K23">
-        <v>1.028438702839148</v>
+        <v>1.062632547593445</v>
       </c>
       <c r="L23">
-        <v>1.028380663736659</v>
+        <v>1.062254415039878</v>
       </c>
       <c r="M23">
-        <v>1.03607739610699</v>
+        <v>1.072403068799269</v>
       </c>
       <c r="N23">
-        <v>1.012213147603348</v>
+        <v>1.023225254187833</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.005740163845445</v>
+        <v>1.053659755946644</v>
       </c>
       <c r="D24">
-        <v>1.021370236340607</v>
+        <v>1.060607779306123</v>
       </c>
       <c r="E24">
-        <v>1.021177654762731</v>
+        <v>1.060208552825394</v>
       </c>
       <c r="F24">
-        <v>1.029532176431529</v>
+        <v>1.070493878396117</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053429206295144</v>
+        <v>1.044838249842348</v>
       </c>
       <c r="J24">
-        <v>1.033019027422761</v>
+        <v>1.059732854630436</v>
       </c>
       <c r="K24">
-        <v>1.035032179746362</v>
+        <v>1.063894155906448</v>
       </c>
       <c r="L24">
-        <v>1.034842801082213</v>
+        <v>1.063496253063634</v>
       </c>
       <c r="M24">
-        <v>1.043059790175534</v>
+        <v>1.073747822723807</v>
       </c>
       <c r="N24">
-        <v>1.014389017642554</v>
+        <v>1.023630610551264</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01610217988387</v>
+        <v>1.055650500810026</v>
       </c>
       <c r="D25">
-        <v>1.030171563346679</v>
+        <v>1.062384487038294</v>
       </c>
       <c r="E25">
-        <v>1.029834860660555</v>
+        <v>1.06196268005027</v>
       </c>
       <c r="F25">
-        <v>1.038755747641971</v>
+        <v>1.072364313448021</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056695899101427</v>
+        <v>1.045278546030333</v>
       </c>
       <c r="J25">
-        <v>1.040099532768018</v>
+        <v>1.061126379166458</v>
       </c>
       <c r="K25">
-        <v>1.042318887526643</v>
+        <v>1.06535574755417</v>
       </c>
       <c r="L25">
-        <v>1.041987032986833</v>
+        <v>1.064935195420234</v>
       </c>
       <c r="M25">
-        <v>1.050780810592874</v>
+        <v>1.075306197757473</v>
       </c>
       <c r="N25">
-        <v>1.016789524225265</v>
+        <v>1.024099437140107</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.057237514097443</v>
+        <v>1.023995765587501</v>
       </c>
       <c r="D2">
-        <v>1.063801908004986</v>
+        <v>1.036898721238469</v>
       </c>
       <c r="E2">
-        <v>1.063362337245781</v>
+        <v>1.036454801746775</v>
       </c>
       <c r="F2">
-        <v>1.073856695906644</v>
+        <v>1.045806917472368</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045622341484798</v>
+        <v>1.059129295298154</v>
       </c>
       <c r="J2">
-        <v>1.062234981983867</v>
+        <v>1.045481712009825</v>
       </c>
       <c r="K2">
-        <v>1.066519563723911</v>
+        <v>1.047866862348795</v>
       </c>
       <c r="L2">
-        <v>1.066081181700343</v>
+        <v>1.047428592568189</v>
       </c>
       <c r="M2">
-        <v>1.076547447634795</v>
+        <v>1.056662948424175</v>
       </c>
       <c r="N2">
-        <v>1.024472112371567</v>
+        <v>1.018613677021082</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.058389387893265</v>
+        <v>1.029532276024459</v>
       </c>
       <c r="D3">
-        <v>1.064831279183767</v>
+        <v>1.041628852255733</v>
       </c>
       <c r="E3">
-        <v>1.064378952264376</v>
+        <v>1.041111170914965</v>
       </c>
       <c r="F3">
-        <v>1.074940615255715</v>
+        <v>1.050765625745627</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045867685861676</v>
+        <v>1.060803017324234</v>
       </c>
       <c r="J3">
-        <v>1.063038272645739</v>
+        <v>1.049249003804608</v>
       </c>
       <c r="K3">
-        <v>1.067363478996863</v>
+        <v>1.051755412814369</v>
       </c>
       <c r="L3">
-        <v>1.066912286670341</v>
+        <v>1.051243720496023</v>
       </c>
       <c r="M3">
-        <v>1.077447725449697</v>
+        <v>1.060787680883773</v>
       </c>
       <c r="N3">
-        <v>1.024741979345802</v>
+        <v>1.019890042619457</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.059134532509515</v>
+        <v>1.033030614600082</v>
       </c>
       <c r="D4">
-        <v>1.065497445981669</v>
+        <v>1.044622727341739</v>
       </c>
       <c r="E4">
-        <v>1.065036930321282</v>
+        <v>1.044059090560939</v>
       </c>
       <c r="F4">
-        <v>1.075642133877135</v>
+        <v>1.053904528642868</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046024458939281</v>
+        <v>1.061844916999683</v>
       </c>
       <c r="J4">
-        <v>1.063557293716238</v>
+        <v>1.05162553838082</v>
       </c>
       <c r="K4">
-        <v>1.067909034190959</v>
+        <v>1.054210848865712</v>
       </c>
       <c r="L4">
-        <v>1.067449615381198</v>
+        <v>1.053653323909005</v>
       </c>
       <c r="M4">
-        <v>1.07802981516089</v>
+        <v>1.063393153306198</v>
       </c>
       <c r="N4">
-        <v>1.024916265018928</v>
+        <v>1.020694961267003</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.059447745538105</v>
+        <v>1.034482004313874</v>
       </c>
       <c r="D5">
-        <v>1.065777525366155</v>
+        <v>1.045865987981074</v>
       </c>
       <c r="E5">
-        <v>1.065313582761335</v>
+        <v>1.045283439901022</v>
       </c>
       <c r="F5">
-        <v>1.075937088474755</v>
+        <v>1.05520810014686</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046089891943141</v>
+        <v>1.062273363697738</v>
       </c>
       <c r="J5">
-        <v>1.063775308047259</v>
+        <v>1.052610535229577</v>
       </c>
       <c r="K5">
-        <v>1.068138262631847</v>
+        <v>1.055229125812941</v>
       </c>
       <c r="L5">
-        <v>1.067675400381879</v>
+        <v>1.054652720137722</v>
       </c>
       <c r="M5">
-        <v>1.078274418055363</v>
+        <v>1.064473864919815</v>
       </c>
       <c r="N5">
-        <v>1.024989454215866</v>
+        <v>1.021028506595661</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.059500332724777</v>
+        <v>1.034724589915892</v>
       </c>
       <c r="D6">
-        <v>1.06582455327257</v>
+        <v>1.04607385374083</v>
       </c>
       <c r="E6">
-        <v>1.065360036182406</v>
+        <v>1.04548815386604</v>
       </c>
       <c r="F6">
-        <v>1.075986614775712</v>
+        <v>1.055426054570579</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046100850610201</v>
+        <v>1.062344748369625</v>
       </c>
       <c r="J6">
-        <v>1.063811902939197</v>
+        <v>1.052775108973932</v>
       </c>
       <c r="K6">
-        <v>1.068176743890559</v>
+        <v>1.055399294016224</v>
       </c>
       <c r="L6">
-        <v>1.067713304349219</v>
+        <v>1.054819740505481</v>
       </c>
       <c r="M6">
-        <v>1.078315481651501</v>
+        <v>1.064654479372124</v>
       </c>
       <c r="N6">
-        <v>1.025001738283833</v>
+        <v>1.021084231366822</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.059138717856104</v>
+        <v>1.033050082954817</v>
       </c>
       <c r="D7">
-        <v>1.065501188326083</v>
+        <v>1.044639399408007</v>
       </c>
       <c r="E7">
-        <v>1.065040626813443</v>
+        <v>1.044075508349548</v>
       </c>
       <c r="F7">
-        <v>1.075646074932568</v>
+        <v>1.053922009136247</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04602533512249</v>
+        <v>1.061850679169968</v>
       </c>
       <c r="J7">
-        <v>1.063560207549765</v>
+        <v>1.051638754659057</v>
       </c>
       <c r="K7">
-        <v>1.067912097635539</v>
+        <v>1.054224509396055</v>
       </c>
       <c r="L7">
-        <v>1.067452632755555</v>
+        <v>1.053666730650326</v>
       </c>
       <c r="M7">
-        <v>1.078033083979415</v>
+        <v>1.063407650574023</v>
       </c>
       <c r="N7">
-        <v>1.024917243292858</v>
+        <v>1.020699436914298</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.057626836081641</v>
+        <v>1.025884798791697</v>
       </c>
       <c r="D8">
-        <v>1.064149769283717</v>
+        <v>1.038511525154005</v>
       </c>
       <c r="E8">
-        <v>1.06370587396442</v>
+        <v>1.038042300216305</v>
       </c>
       <c r="F8">
-        <v>1.074222980511772</v>
+        <v>1.047497584404245</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045705666910257</v>
+        <v>1.059703620088095</v>
       </c>
       <c r="J8">
-        <v>1.062506615677772</v>
+        <v>1.046767885529202</v>
       </c>
       <c r="K8">
-        <v>1.066804875471917</v>
+        <v>1.049193927839101</v>
       </c>
       <c r="L8">
-        <v>1.066362151162884</v>
+        <v>1.048730488644838</v>
       </c>
       <c r="M8">
-        <v>1.076851794064369</v>
+        <v>1.058070427051713</v>
       </c>
       <c r="N8">
-        <v>1.024563384821093</v>
+        <v>1.019049485078021</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.054961176629299</v>
+        <v>1.012573837935205</v>
       </c>
       <c r="D9">
-        <v>1.061769114183996</v>
+        <v>1.027170903220395</v>
       </c>
       <c r="E9">
-        <v>1.061355089205958</v>
+        <v>1.026882860152162</v>
       </c>
       <c r="F9">
-        <v>1.071716448565534</v>
+        <v>1.03561093050729</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.045127201720915</v>
+        <v>1.055592133082794</v>
       </c>
       <c r="J9">
-        <v>1.060644207526359</v>
+        <v>1.037690263288727</v>
       </c>
       <c r="K9">
-        <v>1.064849859400318</v>
+        <v>1.039838013071046</v>
       </c>
       <c r="L9">
-        <v>1.064437114892364</v>
+        <v>1.039554335091265</v>
       </c>
       <c r="M9">
-        <v>1.07476675369615</v>
+        <v>1.048151508052277</v>
       </c>
       <c r="N9">
-        <v>1.023937264458154</v>
+        <v>1.015972780150461</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.053182983392495</v>
+        <v>1.003178367134293</v>
       </c>
       <c r="D10">
-        <v>1.060182478382355</v>
+        <v>1.019199418752799</v>
       </c>
       <c r="E10">
-        <v>1.059788707427233</v>
+        <v>1.019043021994855</v>
       </c>
       <c r="F10">
-        <v>1.070046178876109</v>
+        <v>1.027257475227128</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04473136322312</v>
+        <v>1.052610484132821</v>
       </c>
       <c r="J10">
-        <v>1.059398654043958</v>
+        <v>1.03126644669316</v>
       </c>
       <c r="K10">
-        <v>1.0635438439393</v>
+        <v>1.033230463725789</v>
       </c>
       <c r="L10">
-        <v>1.063151410720979</v>
+        <v>1.033076755433188</v>
       </c>
       <c r="M10">
-        <v>1.073374387683118</v>
+        <v>1.041151430563983</v>
       </c>
       <c r="N10">
-        <v>1.023518116259758</v>
+        <v>1.013794765425688</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.052412734387046</v>
+        <v>0.9989711606306645</v>
       </c>
       <c r="D11">
-        <v>1.05949555400821</v>
+        <v>1.015638716299293</v>
       </c>
       <c r="E11">
-        <v>1.059110634633653</v>
+        <v>1.015542199246864</v>
       </c>
       <c r="F11">
-        <v>1.069323107136654</v>
+        <v>1.023526582855513</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.044557542794952</v>
+        <v>1.051257335390579</v>
       </c>
       <c r="J11">
-        <v>1.058858374129905</v>
+        <v>1.028386803247916</v>
       </c>
       <c r="K11">
-        <v>1.062977686600033</v>
+        <v>1.030271615066705</v>
       </c>
       <c r="L11">
-        <v>1.062594125777811</v>
+        <v>1.030176846233092</v>
       </c>
       <c r="M11">
-        <v>1.072770918613993</v>
+        <v>1.038018054396664</v>
       </c>
       <c r="N11">
-        <v>1.023336208158461</v>
+        <v>1.012818328877087</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.052126586286614</v>
+        <v>0.9973861199938926</v>
       </c>
       <c r="D12">
-        <v>1.059240414138964</v>
+        <v>1.014298662076366</v>
       </c>
       <c r="E12">
-        <v>1.058858794928248</v>
+        <v>1.014224847489196</v>
       </c>
       <c r="F12">
-        <v>1.069054550508177</v>
+        <v>1.022122542217523</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.044492614528512</v>
+        <v>1.050744921406596</v>
       </c>
       <c r="J12">
-        <v>1.058657547279299</v>
+        <v>1.027301517373154</v>
       </c>
       <c r="K12">
-        <v>1.062767293287819</v>
+        <v>1.029156955350931</v>
       </c>
       <c r="L12">
-        <v>1.062387039741583</v>
+        <v>1.029084503575759</v>
       </c>
       <c r="M12">
-        <v>1.07254667788766</v>
+        <v>1.036837837417683</v>
       </c>
       <c r="N12">
-        <v>1.023268577048477</v>
+        <v>1.012450323502685</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.052187968007258</v>
+        <v>0.9977271499034074</v>
       </c>
       <c r="D13">
-        <v>1.059295141862269</v>
+        <v>1.014586916233799</v>
       </c>
       <c r="E13">
-        <v>1.058912814198051</v>
+        <v>1.01450821056791</v>
       </c>
       <c r="F13">
-        <v>1.069112155720725</v>
+        <v>1.022424557386372</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.044506558317995</v>
+        <v>1.050855287127148</v>
       </c>
       <c r="J13">
-        <v>1.058700631792995</v>
+        <v>1.027535039122579</v>
       </c>
       <c r="K13">
-        <v>1.06281242777735</v>
+        <v>1.029396775890629</v>
       </c>
       <c r="L13">
-        <v>1.062431464280418</v>
+        <v>1.029319517412475</v>
       </c>
       <c r="M13">
-        <v>1.072594782159316</v>
+        <v>1.03709175400661</v>
       </c>
       <c r="N13">
-        <v>1.023283086974161</v>
+        <v>1.012529507522176</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.05238908218725</v>
+        <v>0.9988406042367035</v>
       </c>
       <c r="D14">
-        <v>1.059474463775634</v>
+        <v>1.015528309539263</v>
       </c>
       <c r="E14">
-        <v>1.059089816942564</v>
+        <v>1.015433659512414</v>
       </c>
       <c r="F14">
-        <v>1.069300907667145</v>
+        <v>1.023410902976873</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04455218322242</v>
+        <v>1.051215181744449</v>
       </c>
       <c r="J14">
-        <v>1.058841776636791</v>
+        <v>1.028297418214123</v>
       </c>
       <c r="K14">
-        <v>1.062960297410434</v>
+        <v>1.030179801071455</v>
       </c>
       <c r="L14">
-        <v>1.062577009730356</v>
+        <v>1.030086868167663</v>
       </c>
       <c r="M14">
-        <v>1.072752384551566</v>
+        <v>1.037920836581313</v>
       </c>
       <c r="N14">
-        <v>1.023330619022255</v>
+        <v>1.012788019682319</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.052512989490719</v>
+        <v>0.9995236407798461</v>
       </c>
       <c r="D15">
-        <v>1.059584951821538</v>
+        <v>1.016105986882758</v>
       </c>
       <c r="E15">
-        <v>1.059198877702547</v>
+        <v>1.016001574921105</v>
       </c>
       <c r="F15">
-        <v>1.069417207189319</v>
+        <v>1.024016173265357</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.044580246046155</v>
+        <v>1.05143561215837</v>
       </c>
       <c r="J15">
-        <v>1.0589287216898</v>
+        <v>1.028765041357672</v>
       </c>
       <c r="K15">
-        <v>1.063051391867317</v>
+        <v>1.03066015091759</v>
       </c>
       <c r="L15">
-        <v>1.06266667372909</v>
+        <v>1.030557617477817</v>
       </c>
       <c r="M15">
-        <v>1.072849477249647</v>
+        <v>1.038429465775038</v>
       </c>
       <c r="N15">
-        <v>1.023359896821392</v>
+        <v>1.012946583935802</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.053234096279044</v>
+        <v>1.003454539989511</v>
       </c>
       <c r="D16">
-        <v>1.060228069342016</v>
+        <v>1.019433344724161</v>
       </c>
       <c r="E16">
-        <v>1.059833712657498</v>
+        <v>1.019273036904501</v>
       </c>
       <c r="F16">
-        <v>1.070094170218979</v>
+        <v>1.027502590961011</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044742848124455</v>
+        <v>1.052698941263134</v>
       </c>
       <c r="J16">
-        <v>1.059434490642463</v>
+        <v>1.031455415698996</v>
       </c>
       <c r="K16">
-        <v>1.063581404324991</v>
+        <v>1.033424696200312</v>
       </c>
       <c r="L16">
-        <v>1.063188383910094</v>
+        <v>1.033267134403944</v>
       </c>
       <c r="M16">
-        <v>1.073414425982969</v>
+        <v>1.041357146029904</v>
       </c>
       <c r="N16">
-        <v>1.023530180165328</v>
+        <v>1.013858840467756</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.053686351731312</v>
+        <v>1.005882131391012</v>
       </c>
       <c r="D17">
-        <v>1.060631506229646</v>
+        <v>1.021490596306286</v>
       </c>
       <c r="E17">
-        <v>1.060231975957163</v>
+        <v>1.021296015699954</v>
       </c>
       <c r="F17">
-        <v>1.070518855323767</v>
+        <v>1.029658299052636</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044844196222591</v>
+        <v>1.053474456989989</v>
       </c>
       <c r="J17">
-        <v>1.05975149220772</v>
+        <v>1.033116129631232</v>
       </c>
       <c r="K17">
-        <v>1.063913694354835</v>
+        <v>1.03513202546282</v>
       </c>
       <c r="L17">
-        <v>1.063515486906575</v>
+        <v>1.034940675008818</v>
       </c>
       <c r="M17">
-        <v>1.073768651674345</v>
+        <v>1.043165554112228</v>
       </c>
       <c r="N17">
-        <v>1.023636883441805</v>
+        <v>1.01442194178397</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.053950117796511</v>
+        <v>1.007284804942346</v>
       </c>
       <c r="D18">
-        <v>1.06086683376537</v>
+        <v>1.022680117081461</v>
       </c>
       <c r="E18">
-        <v>1.060464293682082</v>
+        <v>1.022465821175518</v>
       </c>
       <c r="F18">
-        <v>1.070766583019036</v>
+        <v>1.030904788885529</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044903077388844</v>
+        <v>1.053920846564937</v>
       </c>
       <c r="J18">
-        <v>1.059936302519672</v>
+        <v>1.034075398199067</v>
       </c>
       <c r="K18">
-        <v>1.06410745140279</v>
+        <v>1.036118518400199</v>
       </c>
       <c r="L18">
-        <v>1.063706225918551</v>
+        <v>1.035907714648036</v>
       </c>
       <c r="M18">
-        <v>1.07397521100843</v>
+        <v>1.044210567835806</v>
       </c>
       <c r="N18">
-        <v>1.023699081704789</v>
+        <v>1.014747194151414</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.054040050687642</v>
+        <v>1.007760865870069</v>
       </c>
       <c r="D19">
-        <v>1.060947076021412</v>
+        <v>1.023083973400534</v>
       </c>
       <c r="E19">
-        <v>1.060543511001181</v>
+        <v>1.022863000986392</v>
       </c>
       <c r="F19">
-        <v>1.070851054501352</v>
+        <v>1.031327993785691</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.044923114747606</v>
+        <v>1.054072057257549</v>
       </c>
       <c r="J19">
-        <v>1.059999302584356</v>
+        <v>1.03440091665237</v>
       </c>
       <c r="K19">
-        <v>1.064173507030428</v>
+        <v>1.036453325691889</v>
       </c>
       <c r="L19">
-        <v>1.063771253740418</v>
+        <v>1.036235931423559</v>
       </c>
       <c r="M19">
-        <v>1.074045633171166</v>
+        <v>1.044565256420854</v>
       </c>
       <c r="N19">
-        <v>1.023720282931967</v>
+        <v>1.01485756366775</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.053637831791868</v>
+        <v>1.005623059345991</v>
       </c>
       <c r="D20">
-        <v>1.060588220277616</v>
+        <v>1.021270959938896</v>
       </c>
       <c r="E20">
-        <v>1.060189244269235</v>
+        <v>1.02108002779175</v>
       </c>
       <c r="F20">
-        <v>1.070473288973862</v>
+        <v>1.029428147054101</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044833346679647</v>
+        <v>1.053391870764822</v>
       </c>
       <c r="J20">
-        <v>1.059717490391158</v>
+        <v>1.032938929202443</v>
       </c>
       <c r="K20">
-        <v>1.063878049206674</v>
+        <v>1.034949820133992</v>
       </c>
       <c r="L20">
-        <v>1.063480397504818</v>
+        <v>1.034762068332303</v>
       </c>
       <c r="M20">
-        <v>1.073730652252571</v>
+        <v>1.042972549473265</v>
       </c>
       <c r="N20">
-        <v>1.023625439323381</v>
+        <v>1.014361858940291</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.052329860280459</v>
+        <v>0.9985133473002683</v>
       </c>
       <c r="D21">
-        <v>1.059421657547417</v>
+        <v>1.015251583507151</v>
       </c>
       <c r="E21">
-        <v>1.059037693311988</v>
+        <v>1.015161615744302</v>
       </c>
       <c r="F21">
-        <v>1.069245324253953</v>
+        <v>1.023120961304668</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.044538757863605</v>
+        <v>1.051109476086885</v>
       </c>
       <c r="J21">
-        <v>1.058800216945642</v>
+        <v>1.028073356619868</v>
       </c>
       <c r="K21">
-        <v>1.062916756178256</v>
+        <v>1.029949658487686</v>
       </c>
       <c r="L21">
-        <v>1.062534152589683</v>
+        <v>1.029861329390836</v>
       </c>
       <c r="M21">
-        <v>1.072705976937923</v>
+        <v>1.037677151772683</v>
       </c>
       <c r="N21">
-        <v>1.023316623740691</v>
+        <v>1.012712043545891</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.051507235359358</v>
+        <v>0.9939133830083854</v>
       </c>
       <c r="D22">
-        <v>1.058688276482649</v>
+        <v>1.011365394884339</v>
       </c>
       <c r="E22">
-        <v>1.058313821893855</v>
+        <v>1.011341587693835</v>
       </c>
       <c r="F22">
-        <v>1.068473395055661</v>
+        <v>1.019049330829958</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044351434345269</v>
+        <v>1.049617514481642</v>
       </c>
       <c r="J22">
-        <v>1.058222664048588</v>
+        <v>1.024923067999337</v>
       </c>
       <c r="K22">
-        <v>1.062311790076006</v>
+        <v>1.026715014059108</v>
       </c>
       <c r="L22">
-        <v>1.06193871538683</v>
+        <v>1.026691664730175</v>
       </c>
       <c r="M22">
-        <v>1.072061228289563</v>
+        <v>1.034252632319653</v>
       </c>
       <c r="N22">
-        <v>1.023122098377084</v>
+        <v>1.011643826959547</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.051943348658461</v>
+        <v>0.9963647263961156</v>
       </c>
       <c r="D23">
-        <v>1.059077047942968</v>
+        <v>1.013435548557202</v>
       </c>
       <c r="E23">
-        <v>1.058697545348018</v>
+        <v>1.013376404137777</v>
       </c>
       <c r="F23">
-        <v>1.068882596149521</v>
+        <v>1.021218233687756</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044450937534534</v>
+        <v>1.05041399515578</v>
       </c>
       <c r="J23">
-        <v>1.058528914312804</v>
+        <v>1.026602061140724</v>
       </c>
       <c r="K23">
-        <v>1.062632547593445</v>
+        <v>1.028438702839146</v>
       </c>
       <c r="L23">
-        <v>1.062254415039878</v>
+        <v>1.028380663736658</v>
       </c>
       <c r="M23">
-        <v>1.072403068799269</v>
+        <v>1.036077396106988</v>
       </c>
       <c r="N23">
-        <v>1.023225254187833</v>
+        <v>1.012213147603347</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.053659755946644</v>
+        <v>1.005740163845446</v>
       </c>
       <c r="D24">
-        <v>1.060607779306123</v>
+        <v>1.021370236340607</v>
       </c>
       <c r="E24">
-        <v>1.060208552825394</v>
+        <v>1.021177654762731</v>
       </c>
       <c r="F24">
-        <v>1.070493878396117</v>
+        <v>1.029532176431529</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.044838249842348</v>
+        <v>1.053429206295144</v>
       </c>
       <c r="J24">
-        <v>1.059732854630436</v>
+        <v>1.033019027422761</v>
       </c>
       <c r="K24">
-        <v>1.063894155906448</v>
+        <v>1.035032179746362</v>
       </c>
       <c r="L24">
-        <v>1.063496253063634</v>
+        <v>1.034842801082213</v>
       </c>
       <c r="M24">
-        <v>1.073747822723807</v>
+        <v>1.043059790175535</v>
       </c>
       <c r="N24">
-        <v>1.023630610551264</v>
+        <v>1.014389017642554</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.055650500810026</v>
+        <v>1.016102179883871</v>
       </c>
       <c r="D25">
-        <v>1.062384487038294</v>
+        <v>1.03017156334668</v>
       </c>
       <c r="E25">
-        <v>1.06196268005027</v>
+        <v>1.029834860660556</v>
       </c>
       <c r="F25">
-        <v>1.072364313448021</v>
+        <v>1.038755747641972</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.045278546030333</v>
+        <v>1.056695899101427</v>
       </c>
       <c r="J25">
-        <v>1.061126379166458</v>
+        <v>1.040099532768018</v>
       </c>
       <c r="K25">
-        <v>1.06535574755417</v>
+        <v>1.042318887526643</v>
       </c>
       <c r="L25">
-        <v>1.064935195420234</v>
+        <v>1.041987032986833</v>
       </c>
       <c r="M25">
-        <v>1.075306197757473</v>
+        <v>1.050780810592875</v>
       </c>
       <c r="N25">
-        <v>1.024099437140107</v>
+        <v>1.016789524225265</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,989 +412,1145 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.05</v>
-      </c>
       <c r="C2">
-        <v>1.023995765587501</v>
+        <v>0.9887302455550586</v>
       </c>
       <c r="D2">
-        <v>1.036898721238469</v>
+        <v>1.009206513242978</v>
       </c>
       <c r="E2">
-        <v>1.036454801746775</v>
+        <v>0.9964940522207749</v>
       </c>
       <c r="F2">
-        <v>1.045806917472368</v>
+        <v>1.017695346103588</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.059129295298154</v>
-      </c>
       <c r="J2">
-        <v>1.045481712009825</v>
+        <v>1.011253338544769</v>
       </c>
       <c r="K2">
-        <v>1.047866862348795</v>
+        <v>1.020539059636867</v>
       </c>
       <c r="L2">
-        <v>1.047428592568189</v>
+        <v>1.008002447529238</v>
       </c>
       <c r="M2">
-        <v>1.056662948424175</v>
+        <v>1.028913540582113</v>
       </c>
       <c r="N2">
-        <v>1.018613677021082</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.007143947499266</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.031455460720928</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.025592845343448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.05</v>
-      </c>
       <c r="C3">
-        <v>1.029532276024459</v>
+        <v>0.9928865727897856</v>
       </c>
       <c r="D3">
-        <v>1.041628852255733</v>
+        <v>1.012284072340832</v>
       </c>
       <c r="E3">
-        <v>1.041111170914965</v>
+        <v>0.999805388034231</v>
       </c>
       <c r="F3">
-        <v>1.050765625745627</v>
+        <v>1.02076240852569</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.060803017324234</v>
-      </c>
       <c r="J3">
-        <v>1.049249003804608</v>
+        <v>1.013573053492259</v>
       </c>
       <c r="K3">
-        <v>1.051755412814369</v>
+        <v>1.022762152342005</v>
       </c>
       <c r="L3">
-        <v>1.051243720496023</v>
+        <v>1.010440759562525</v>
       </c>
       <c r="M3">
-        <v>1.060787680883773</v>
+        <v>1.031136347814757</v>
       </c>
       <c r="N3">
-        <v>1.019890042619457</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.007993628007166</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.033214683839997</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.027162112586264</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
       <c r="C4">
-        <v>1.033030614600082</v>
+        <v>0.9955288761020283</v>
       </c>
       <c r="D4">
-        <v>1.044622727341739</v>
+        <v>1.014248055820419</v>
       </c>
       <c r="E4">
-        <v>1.044059090560939</v>
+        <v>1.001916446805711</v>
       </c>
       <c r="F4">
-        <v>1.053904528642868</v>
+        <v>1.022721381636104</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.061844916999683</v>
-      </c>
       <c r="J4">
-        <v>1.05162553838082</v>
+        <v>1.015047649338608</v>
       </c>
       <c r="K4">
-        <v>1.054210848865712</v>
+        <v>1.024177507765393</v>
       </c>
       <c r="L4">
-        <v>1.053653323909005</v>
+        <v>1.011991796903492</v>
       </c>
       <c r="M4">
-        <v>1.063393153306198</v>
+        <v>1.032553100749454</v>
       </c>
       <c r="N4">
-        <v>1.020694961267003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.008532596740974</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.034335959388051</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.028163836809383</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.05</v>
-      </c>
       <c r="C5">
-        <v>1.034482004313874</v>
+        <v>0.9966342330771709</v>
       </c>
       <c r="D5">
-        <v>1.045865987981074</v>
+        <v>1.015074089089492</v>
       </c>
       <c r="E5">
-        <v>1.045283439901022</v>
+        <v>1.002801573663868</v>
       </c>
       <c r="F5">
-        <v>1.05520810014686</v>
+        <v>1.023543950756347</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.062273363697738</v>
-      </c>
       <c r="J5">
-        <v>1.052610535229577</v>
+        <v>1.015666724125078</v>
       </c>
       <c r="K5">
-        <v>1.055229125812941</v>
+        <v>1.024773798768157</v>
       </c>
       <c r="L5">
-        <v>1.054652720137722</v>
+        <v>1.012642548745947</v>
       </c>
       <c r="M5">
-        <v>1.064473864919815</v>
+        <v>1.033148597451211</v>
       </c>
       <c r="N5">
-        <v>1.021028506595661</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.008758993682718</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.034807259019204</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.028592761762725</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.05</v>
-      </c>
       <c r="C6">
-        <v>1.034724589915892</v>
+        <v>0.9968258264631777</v>
       </c>
       <c r="D6">
-        <v>1.04607385374083</v>
+        <v>1.015220614524329</v>
       </c>
       <c r="E6">
-        <v>1.04548815386604</v>
+        <v>1.00295582704844</v>
       </c>
       <c r="F6">
-        <v>1.055426054570579</v>
+        <v>1.0236877584905</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.062344748369625</v>
-      </c>
       <c r="J6">
-        <v>1.052775108973932</v>
+        <v>1.015776777321145</v>
       </c>
       <c r="K6">
-        <v>1.055399294016224</v>
+        <v>1.024881713391689</v>
       </c>
       <c r="L6">
-        <v>1.054819740505481</v>
+        <v>1.012757443311288</v>
       </c>
       <c r="M6">
-        <v>1.064654479372124</v>
+        <v>1.0332542657116</v>
       </c>
       <c r="N6">
-        <v>1.021084231366822</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.008799725602791</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.034890889024904</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.028677948867559</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.05</v>
-      </c>
       <c r="C7">
-        <v>1.033050082954817</v>
+        <v>0.9955616607364776</v>
       </c>
       <c r="D7">
-        <v>1.044639399408007</v>
+        <v>1.014281253834768</v>
       </c>
       <c r="E7">
-        <v>1.044075508349548</v>
+        <v>1.001944741192288</v>
       </c>
       <c r="F7">
-        <v>1.053922009136247</v>
+        <v>1.022748716495011</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.061850679169968</v>
-      </c>
       <c r="J7">
-        <v>1.051638754659057</v>
+        <v>1.015073452602849</v>
       </c>
       <c r="K7">
-        <v>1.054224509396055</v>
+        <v>1.024207374287231</v>
       </c>
       <c r="L7">
-        <v>1.053666730650326</v>
+        <v>1.012016757837191</v>
       </c>
       <c r="M7">
-        <v>1.063407650574023</v>
+        <v>1.032577211579463</v>
       </c>
       <c r="N7">
-        <v>1.020699436914298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.008543413246651</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.034355041658196</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.028205385300313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.05</v>
-      </c>
       <c r="C8">
-        <v>1.025884798791697</v>
+        <v>0.9901679974212645</v>
       </c>
       <c r="D8">
-        <v>1.038511525154005</v>
+        <v>1.010280449794726</v>
       </c>
       <c r="E8">
-        <v>1.038042300216305</v>
+        <v>0.9976409808441333</v>
       </c>
       <c r="F8">
-        <v>1.047497584404245</v>
+        <v>1.018758065876353</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.059703620088095</v>
-      </c>
       <c r="J8">
-        <v>1.046767885529202</v>
+        <v>1.012065300936776</v>
       </c>
       <c r="K8">
-        <v>1.049193927839101</v>
+        <v>1.021322943505686</v>
       </c>
       <c r="L8">
-        <v>1.048730488644838</v>
+        <v>1.00885300164839</v>
       </c>
       <c r="M8">
-        <v>1.058070427051713</v>
+        <v>1.029689803405643</v>
       </c>
       <c r="N8">
-        <v>1.019049485078021</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.007443426645943</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.032069828266334</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.026170440014617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
       <c r="C9">
-        <v>1.012573837935205</v>
+        <v>0.9802551556311987</v>
       </c>
       <c r="D9">
-        <v>1.027170903220395</v>
+        <v>1.002974748372913</v>
       </c>
       <c r="E9">
-        <v>1.026882860152162</v>
+        <v>0.9897769437737378</v>
       </c>
       <c r="F9">
-        <v>1.03561093050729</v>
+        <v>1.01149380674108</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.055592133082794</v>
-      </c>
       <c r="J9">
-        <v>1.037690263288727</v>
+        <v>1.006524953509546</v>
       </c>
       <c r="K9">
-        <v>1.039838013071046</v>
+        <v>1.016019746031121</v>
       </c>
       <c r="L9">
-        <v>1.039554335091265</v>
+        <v>1.003038089502008</v>
       </c>
       <c r="M9">
-        <v>1.048151508052277</v>
+        <v>1.024403117301862</v>
       </c>
       <c r="N9">
-        <v>1.015972780150461</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.00540641485879</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.027885708390116</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.022417346627865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.05</v>
-      </c>
       <c r="C10">
-        <v>1.003178367134293</v>
+        <v>0.9734640623071641</v>
       </c>
       <c r="D10">
-        <v>1.019199418752799</v>
+        <v>0.9980507298469449</v>
       </c>
       <c r="E10">
-        <v>1.019043021994855</v>
+        <v>0.9844376278867172</v>
       </c>
       <c r="F10">
-        <v>1.027257475227128</v>
+        <v>1.006657309581334</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.052610484132821</v>
-      </c>
       <c r="J10">
-        <v>1.03126644669316</v>
+        <v>1.002771553265147</v>
       </c>
       <c r="K10">
-        <v>1.033230463725789</v>
+        <v>1.012455268385098</v>
       </c>
       <c r="L10">
-        <v>1.033076755433188</v>
+        <v>0.9990936679912403</v>
       </c>
       <c r="M10">
-        <v>1.041151430563983</v>
+        <v>1.02090739565373</v>
       </c>
       <c r="N10">
-        <v>1.013794765425688</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004028416109123</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.025171306547051</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.019914085242907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.05</v>
-      </c>
       <c r="C11">
-        <v>0.9989711606306645</v>
+        <v>0.9712346390695447</v>
       </c>
       <c r="D11">
-        <v>1.015638716299293</v>
+        <v>0.9967309223979395</v>
       </c>
       <c r="E11">
-        <v>1.015542199246864</v>
+        <v>0.9827921042385643</v>
       </c>
       <c r="F11">
-        <v>1.023526582855513</v>
+        <v>1.005771414657521</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.051257335390579</v>
-      </c>
       <c r="J11">
-        <v>1.028386803247916</v>
+        <v>1.001855062410347</v>
       </c>
       <c r="K11">
-        <v>1.030271615066705</v>
+        <v>1.011714753186047</v>
       </c>
       <c r="L11">
-        <v>1.030176846233092</v>
+        <v>0.9980459998933376</v>
       </c>
       <c r="M11">
-        <v>1.038018054396664</v>
+        <v>1.020585305162744</v>
       </c>
       <c r="N11">
-        <v>1.012818328877087</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.003751309684377</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.025359320175838</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.019424031698534</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.05</v>
-      </c>
       <c r="C12">
-        <v>0.9973861199938926</v>
+        <v>0.9706927026980048</v>
       </c>
       <c r="D12">
-        <v>1.014298662076366</v>
+        <v>0.9965466950149225</v>
       </c>
       <c r="E12">
-        <v>1.014224847489196</v>
+        <v>0.982446580570919</v>
       </c>
       <c r="F12">
-        <v>1.022122542217523</v>
+        <v>1.0058912114429</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.050744921406596</v>
-      </c>
       <c r="J12">
-        <v>1.027301517373154</v>
+        <v>1.001791358814276</v>
       </c>
       <c r="K12">
-        <v>1.029156955350931</v>
+        <v>1.011740355303966</v>
       </c>
       <c r="L12">
-        <v>1.029084503575759</v>
+        <v>0.9979179843798345</v>
       </c>
       <c r="M12">
-        <v>1.036837837417683</v>
+        <v>1.020906408831566</v>
       </c>
       <c r="N12">
-        <v>1.012450323502685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.003778087787533</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.025944104264013</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.019442133952008</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.05</v>
-      </c>
       <c r="C13">
-        <v>0.9977271499034074</v>
+        <v>0.9714355778645112</v>
       </c>
       <c r="D13">
-        <v>1.014586916233799</v>
+        <v>0.9972513046947376</v>
       </c>
       <c r="E13">
-        <v>1.01450821056791</v>
+        <v>0.9830961176224443</v>
       </c>
       <c r="F13">
-        <v>1.022424557386372</v>
+        <v>1.006824588690532</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.050855287127148</v>
-      </c>
       <c r="J13">
-        <v>1.027535039122579</v>
+        <v>1.002402790333729</v>
       </c>
       <c r="K13">
-        <v>1.029396775890629</v>
+        <v>1.012387143888135</v>
       </c>
       <c r="L13">
-        <v>1.029319517412475</v>
+        <v>0.9985093466251209</v>
       </c>
       <c r="M13">
-        <v>1.03709175400661</v>
+        <v>1.021778599231806</v>
       </c>
       <c r="N13">
-        <v>1.012529507522176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.004050591902574</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.026913575024408</v>
+      </c>
+      <c r="Q13">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R13">
+        <v>1.019896908183689</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.05</v>
-      </c>
       <c r="C14">
-        <v>0.9988406042367035</v>
+        <v>0.9725373797284018</v>
       </c>
       <c r="D14">
-        <v>1.015528309539263</v>
+        <v>0.9981474545213749</v>
       </c>
       <c r="E14">
-        <v>1.015433659512414</v>
+        <v>0.9840015642853697</v>
       </c>
       <c r="F14">
-        <v>1.023410902976873</v>
+        <v>1.007845200571477</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.051215181744449</v>
-      </c>
       <c r="J14">
-        <v>1.028297418214123</v>
+        <v>1.003136368901919</v>
       </c>
       <c r="K14">
-        <v>1.030179801071455</v>
+        <v>1.013121406753516</v>
       </c>
       <c r="L14">
-        <v>1.030086868167663</v>
+        <v>0.999249002999852</v>
       </c>
       <c r="M14">
-        <v>1.037920836581313</v>
+        <v>1.022637445895897</v>
       </c>
       <c r="N14">
-        <v>1.012788019682319</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.004352793370848</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.027767449276352</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.020417530482715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.05</v>
-      </c>
       <c r="C15">
-        <v>0.9995236407798461</v>
+        <v>0.9730933012681066</v>
       </c>
       <c r="D15">
-        <v>1.016105986882758</v>
+        <v>0.998572174451028</v>
       </c>
       <c r="E15">
-        <v>1.016001574921105</v>
+        <v>0.9844464200065033</v>
       </c>
       <c r="F15">
-        <v>1.024016173265357</v>
+        <v>1.008290940737176</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.05143561215837</v>
-      </c>
       <c r="J15">
-        <v>1.028765041357672</v>
+        <v>1.003471750256457</v>
       </c>
       <c r="K15">
-        <v>1.03066015091759</v>
+        <v>1.013448990129953</v>
       </c>
       <c r="L15">
-        <v>1.030557617477817</v>
+        <v>0.9995941415772387</v>
       </c>
       <c r="M15">
-        <v>1.038429465775038</v>
+        <v>1.022987109266189</v>
       </c>
       <c r="N15">
-        <v>1.012946583935802</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.004483586986566</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.028081674323829</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.020655140791101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.05</v>
-      </c>
       <c r="C16">
-        <v>1.003454539989511</v>
+        <v>0.9758189939271465</v>
       </c>
       <c r="D16">
-        <v>1.019433344724161</v>
+        <v>1.000521000847814</v>
       </c>
       <c r="E16">
-        <v>1.019273036904501</v>
+        <v>0.9865695259638075</v>
       </c>
       <c r="F16">
-        <v>1.027502590961011</v>
+        <v>1.010188092206954</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.052698941263134</v>
-      </c>
       <c r="J16">
-        <v>1.031455415698996</v>
+        <v>1.00494599962431</v>
       </c>
       <c r="K16">
-        <v>1.033424696200312</v>
+        <v>1.014844204725418</v>
       </c>
       <c r="L16">
-        <v>1.033267134403944</v>
+        <v>1.001148176078233</v>
       </c>
       <c r="M16">
-        <v>1.041357146029904</v>
+        <v>1.024339657399826</v>
       </c>
       <c r="N16">
-        <v>1.013858840467756</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.005015273385586</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.029111669870171</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.021644869657596</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.05</v>
-      </c>
       <c r="C17">
-        <v>1.005882131391012</v>
+        <v>0.9773365824368476</v>
       </c>
       <c r="D17">
-        <v>1.021490596306286</v>
+        <v>1.001550346710955</v>
       </c>
       <c r="E17">
-        <v>1.021296015699954</v>
+        <v>0.9877286802933978</v>
       </c>
       <c r="F17">
-        <v>1.029658299052636</v>
+        <v>1.011106468459784</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.053474456989989</v>
-      </c>
       <c r="J17">
-        <v>1.033116129631232</v>
+        <v>1.005694431006366</v>
       </c>
       <c r="K17">
-        <v>1.03513202546282</v>
+        <v>1.015531247229934</v>
       </c>
       <c r="L17">
-        <v>1.034940675008818</v>
+        <v>1.001955346545334</v>
       </c>
       <c r="M17">
-        <v>1.043165554112228</v>
+        <v>1.024922523678528</v>
       </c>
       <c r="N17">
-        <v>1.01442194178397</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.005265264272642</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.029442185816928</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.022133288313817</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.05</v>
-      </c>
       <c r="C18">
-        <v>1.007284804942346</v>
+        <v>0.9779347903791967</v>
       </c>
       <c r="D18">
-        <v>1.022680117081461</v>
+        <v>1.001844624945812</v>
       </c>
       <c r="E18">
-        <v>1.022465821175518</v>
+        <v>0.9881425933128687</v>
       </c>
       <c r="F18">
-        <v>1.030904788885529</v>
+        <v>1.011204323920196</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.053920846564937</v>
-      </c>
       <c r="J18">
-        <v>1.034075398199067</v>
+        <v>1.005858116501979</v>
       </c>
       <c r="K18">
-        <v>1.036118518400199</v>
+        <v>1.015631593545338</v>
       </c>
       <c r="L18">
-        <v>1.035907714648036</v>
+        <v>1.002169188880891</v>
       </c>
       <c r="M18">
-        <v>1.044210567835806</v>
+        <v>1.024832418729129</v>
       </c>
       <c r="N18">
-        <v>1.014747194151414</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.005284482053687</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.02913081846283</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.022192378877809</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.05</v>
-      </c>
       <c r="C19">
-        <v>1.007760865870069</v>
+        <v>0.9777383929909408</v>
       </c>
       <c r="D19">
-        <v>1.023083973400534</v>
+        <v>1.00151163350365</v>
       </c>
       <c r="E19">
-        <v>1.022863000986392</v>
+        <v>0.9879173672411402</v>
       </c>
       <c r="F19">
-        <v>1.031327993785691</v>
+        <v>1.010580070654988</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.054072057257549</v>
-      </c>
       <c r="J19">
-        <v>1.03440091665237</v>
+        <v>1.005529903205241</v>
       </c>
       <c r="K19">
-        <v>1.036453325691889</v>
+        <v>1.015239921467809</v>
       </c>
       <c r="L19">
-        <v>1.036235931423559</v>
+        <v>1.001882290618763</v>
       </c>
       <c r="M19">
-        <v>1.044565256420854</v>
+        <v>1.024155066014376</v>
       </c>
       <c r="N19">
-        <v>1.01485756366775</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.005116327633153</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.028265800821204</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.021921964665191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.05</v>
-      </c>
       <c r="C20">
-        <v>1.005623059345991</v>
+        <v>0.9752778263490268</v>
       </c>
       <c r="D20">
-        <v>1.021270959938896</v>
+        <v>0.9993869758862624</v>
       </c>
       <c r="E20">
-        <v>1.02108002779175</v>
+        <v>0.9858679617792908</v>
       </c>
       <c r="F20">
-        <v>1.029428147054101</v>
+        <v>1.007957637102456</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.053391870764822</v>
-      </c>
       <c r="J20">
-        <v>1.032938929202443</v>
+        <v>1.003796172422285</v>
       </c>
       <c r="K20">
-        <v>1.034949820133992</v>
+        <v>1.013440613155634</v>
       </c>
       <c r="L20">
-        <v>1.034762068332303</v>
+        <v>1.000163942659991</v>
       </c>
       <c r="M20">
-        <v>1.042972549473265</v>
+        <v>1.021861989529281</v>
       </c>
       <c r="N20">
-        <v>1.014361858940291</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.004409531416679</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.025916058685704</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.020653747590498</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.05</v>
-      </c>
       <c r="C21">
-        <v>0.9985133473002683</v>
+        <v>0.9700278989055751</v>
       </c>
       <c r="D21">
-        <v>1.015251583507151</v>
+        <v>0.9955380914189866</v>
       </c>
       <c r="E21">
-        <v>1.015161615744302</v>
+        <v>0.9817352119440016</v>
       </c>
       <c r="F21">
-        <v>1.023120961304668</v>
+        <v>1.00410207914907</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.051109476086885</v>
-      </c>
       <c r="J21">
-        <v>1.028073356619868</v>
+        <v>1.000834479605859</v>
       </c>
       <c r="K21">
-        <v>1.029949658487686</v>
+        <v>1.010604491977855</v>
       </c>
       <c r="L21">
-        <v>1.029861329390836</v>
+        <v>0.9970710800555814</v>
       </c>
       <c r="M21">
-        <v>1.037677151772683</v>
+        <v>1.019006150912616</v>
       </c>
       <c r="N21">
-        <v>1.012712043545891</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.003309762164609</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.023614281517517</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.01865173382879</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.05</v>
-      </c>
       <c r="C22">
-        <v>0.9939133830083854</v>
+        <v>0.9666835532498359</v>
       </c>
       <c r="D22">
-        <v>1.011365394884339</v>
+        <v>0.9931047092544353</v>
       </c>
       <c r="E22">
-        <v>1.011341587693835</v>
+        <v>0.979114154488479</v>
       </c>
       <c r="F22">
-        <v>1.019049330829958</v>
+        <v>1.001698766738224</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.049617514481642</v>
-      </c>
       <c r="J22">
-        <v>1.024923067999337</v>
+        <v>0.9989590278639527</v>
       </c>
       <c r="K22">
-        <v>1.026715014059108</v>
+        <v>1.008814012044099</v>
       </c>
       <c r="L22">
-        <v>1.026691664730175</v>
+        <v>0.9951110376165032</v>
       </c>
       <c r="M22">
-        <v>1.034252632319653</v>
+        <v>1.017236645677381</v>
       </c>
       <c r="N22">
-        <v>1.011643826959547</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.002613820186101</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.022213801469693</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.017371931648611</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.05</v>
-      </c>
       <c r="C23">
-        <v>0.9963647263961156</v>
+        <v>0.9684438875688256</v>
       </c>
       <c r="D23">
-        <v>1.013435548557202</v>
+        <v>0.9943763487663314</v>
       </c>
       <c r="E23">
-        <v>1.013376404137777</v>
+        <v>0.9804903986822033</v>
       </c>
       <c r="F23">
-        <v>1.021218233687756</v>
+        <v>1.002959754423078</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.05041399515578</v>
-      </c>
       <c r="J23">
-        <v>1.026602061140724</v>
+        <v>0.9999385091295453</v>
       </c>
       <c r="K23">
-        <v>1.028438702839146</v>
+        <v>1.009744624606594</v>
       </c>
       <c r="L23">
-        <v>1.028380663736658</v>
+        <v>0.9961364761031373</v>
       </c>
       <c r="M23">
-        <v>1.036077396106988</v>
+        <v>1.018161347273943</v>
       </c>
       <c r="N23">
-        <v>1.012213147603347</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.002975768264541</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.022945659590941</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.018020087511234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.05</v>
-      </c>
       <c r="C24">
-        <v>1.005740163845446</v>
+        <v>0.9752622835798243</v>
       </c>
       <c r="D24">
-        <v>1.021370236340607</v>
+        <v>0.9993358713714955</v>
       </c>
       <c r="E24">
-        <v>1.021177654762731</v>
+        <v>0.9858431250207662</v>
       </c>
       <c r="F24">
-        <v>1.029532176431529</v>
+        <v>1.007873950305306</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.053429206295144</v>
-      </c>
       <c r="J24">
-        <v>1.033019027422761</v>
+        <v>1.00374700849508</v>
       </c>
       <c r="K24">
-        <v>1.035032179746362</v>
+        <v>1.013374659899268</v>
       </c>
       <c r="L24">
-        <v>1.034842801082213</v>
+        <v>1.000123497633606</v>
       </c>
       <c r="M24">
-        <v>1.043059790175535</v>
+        <v>1.02176418728029</v>
       </c>
       <c r="N24">
-        <v>1.014389017642554</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.004383969076425</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.025797131627242</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.020579137302242</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.05</v>
-      </c>
       <c r="C25">
-        <v>1.016102179883871</v>
+        <v>0.9828961254313676</v>
       </c>
       <c r="D25">
-        <v>1.03017156334668</v>
+        <v>1.004927556293806</v>
       </c>
       <c r="E25">
-        <v>1.029834860660556</v>
+        <v>0.9918697579230903</v>
       </c>
       <c r="F25">
-        <v>1.038755747641972</v>
+        <v>1.013424750912704</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.056695899101427</v>
-      </c>
       <c r="J25">
-        <v>1.040099532768018</v>
+        <v>1.008013139234115</v>
       </c>
       <c r="K25">
-        <v>1.042318887526643</v>
+        <v>1.017449856876532</v>
       </c>
       <c r="L25">
-        <v>1.041987032986833</v>
+        <v>1.004595610342369</v>
       </c>
       <c r="M25">
-        <v>1.050780810592875</v>
+        <v>1.025818179077659</v>
       </c>
       <c r="N25">
-        <v>1.016789524225265</v>
+        <v>1.005957020689096</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.029005654057754</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.023457698387399</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_14/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,1133 +424,1355 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9887302455550586</v>
+        <v>0.9902517625883851</v>
       </c>
       <c r="D2">
-        <v>1.009206513242978</v>
+        <v>1.010652667613941</v>
       </c>
       <c r="E2">
-        <v>0.9964940522207749</v>
+        <v>0.9978562875210404</v>
       </c>
       <c r="F2">
-        <v>1.017695346103588</v>
+        <v>1.018823235638461</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="J2">
-        <v>1.011253338544769</v>
+        <v>1.012728003147129</v>
       </c>
       <c r="K2">
-        <v>1.020539059636867</v>
+        <v>1.021965562278452</v>
       </c>
       <c r="L2">
-        <v>1.008002447529238</v>
+        <v>1.009345568676427</v>
       </c>
       <c r="M2">
-        <v>1.028913540582113</v>
+        <v>1.030026416501844</v>
       </c>
       <c r="N2">
-        <v>1.007143947499266</v>
+        <v>1.010234267829122</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.031455460720928</v>
+        <v>1.032336238076297</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.025592845343448</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.026610464347159</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.017606807919059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9928865727897856</v>
+        <v>0.9941332756425657</v>
       </c>
       <c r="D3">
-        <v>1.012284072340832</v>
+        <v>1.013399062308903</v>
       </c>
       <c r="E3">
-        <v>0.999805388034231</v>
+        <v>1.0009241772838</v>
       </c>
       <c r="F3">
-        <v>1.02076240852569</v>
+        <v>1.021644738869693</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="J3">
-        <v>1.013573053492259</v>
+        <v>1.01478516129105</v>
       </c>
       <c r="K3">
-        <v>1.022762152342005</v>
+        <v>1.023863322828189</v>
       </c>
       <c r="L3">
-        <v>1.010440759562525</v>
+        <v>1.01154524673102</v>
       </c>
       <c r="M3">
-        <v>1.031136347814757</v>
+        <v>1.032007963726128</v>
       </c>
       <c r="N3">
-        <v>1.007993628007166</v>
+        <v>1.010829705078875</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.033214683839997</v>
+        <v>1.033904516120922</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.027162112586264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.027949400008928</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.018057643399752</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9955288761020283</v>
+        <v>0.9966037815136252</v>
       </c>
       <c r="D4">
-        <v>1.014248055820419</v>
+        <v>1.015154172703326</v>
       </c>
       <c r="E4">
-        <v>1.001916446805711</v>
+        <v>1.002882876914958</v>
       </c>
       <c r="F4">
-        <v>1.022721381636104</v>
+        <v>1.023449217777341</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="J4">
-        <v>1.015047649338608</v>
+        <v>1.016094763703886</v>
       </c>
       <c r="K4">
-        <v>1.024177507765393</v>
+        <v>1.025073077030047</v>
       </c>
       <c r="L4">
-        <v>1.011991796903492</v>
+        <v>1.012946632234369</v>
       </c>
       <c r="M4">
-        <v>1.032553100749454</v>
+        <v>1.033272635010792</v>
       </c>
       <c r="N4">
-        <v>1.008532596740974</v>
+        <v>1.011208088393107</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.034335959388051</v>
+        <v>1.034905427207739</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.028163836809383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.028805816812952</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.018342196511052</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9966342330771709</v>
+        <v>0.9976377301788547</v>
       </c>
       <c r="D5">
-        <v>1.015074089089492</v>
+        <v>1.015893070586467</v>
       </c>
       <c r="E5">
-        <v>1.002801573663868</v>
+        <v>1.003704628574986</v>
       </c>
       <c r="F5">
-        <v>1.023543950756347</v>
+        <v>1.024207403257773</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="J5">
-        <v>1.015666724125078</v>
+        <v>1.016645058804688</v>
       </c>
       <c r="K5">
-        <v>1.024773798768157</v>
+        <v>1.025583502966511</v>
       </c>
       <c r="L5">
-        <v>1.012642548745947</v>
+        <v>1.013535063258262</v>
       </c>
       <c r="M5">
-        <v>1.033148597451211</v>
+        <v>1.033804685248126</v>
       </c>
       <c r="N5">
-        <v>1.008758993682718</v>
+        <v>1.011367228839042</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.034807259019204</v>
+        <v>1.035326512474098</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.028592761762725</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.029174730805988</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.018462259122408</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9968258264631777</v>
+        <v>0.9978167264994957</v>
       </c>
       <c r="D6">
-        <v>1.015220614524329</v>
+        <v>1.01602434232694</v>
       </c>
       <c r="E6">
-        <v>1.00295582704844</v>
+        <v>1.003847683560289</v>
       </c>
       <c r="F6">
-        <v>1.0236877584905</v>
+        <v>1.024339916844748</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="J6">
-        <v>1.015776777321145</v>
+        <v>1.016742959956892</v>
       </c>
       <c r="K6">
-        <v>1.024881713391689</v>
+        <v>1.025676378838607</v>
       </c>
       <c r="L6">
-        <v>1.012757443311288</v>
+        <v>1.013638938778997</v>
       </c>
       <c r="M6">
-        <v>1.0332542657116</v>
+        <v>1.033899218140574</v>
       </c>
       <c r="N6">
-        <v>1.008799725602791</v>
+        <v>1.011395912078849</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.034890889024904</v>
+        <v>1.035401329458364</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.028677948867559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.029250148065126</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.018484907129271</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9955616607364776</v>
+        <v>0.9966421455920164</v>
       </c>
       <c r="D7">
-        <v>1.014281253834768</v>
+        <v>1.01519085458783</v>
       </c>
       <c r="E7">
-        <v>1.001944741192288</v>
+        <v>1.002916370147502</v>
       </c>
       <c r="F7">
-        <v>1.022748716495011</v>
+        <v>1.023479577933774</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="J7">
-        <v>1.015073452602849</v>
+        <v>1.016126015100042</v>
       </c>
       <c r="K7">
-        <v>1.024207374287231</v>
+        <v>1.025106391314477</v>
       </c>
       <c r="L7">
-        <v>1.012016757837191</v>
+        <v>1.012976734448098</v>
       </c>
       <c r="M7">
-        <v>1.032577211579463</v>
+        <v>1.033299739995526</v>
       </c>
       <c r="N7">
-        <v>1.008543413246651</v>
+        <v>1.011244379581316</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.034355041658196</v>
+        <v>1.034926879153708</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.028205385300313</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.028851791521969</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.018353124239644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9901679974212645</v>
+        <v>0.9916188468537181</v>
       </c>
       <c r="D8">
-        <v>1.010280449794726</v>
+        <v>1.011631315493278</v>
       </c>
       <c r="E8">
-        <v>0.9976409808441333</v>
+        <v>0.9989416343818971</v>
       </c>
       <c r="F8">
-        <v>1.018758065876353</v>
+        <v>1.019816692546152</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="J8">
-        <v>1.012065300936776</v>
+        <v>1.013472993806162</v>
       </c>
       <c r="K8">
-        <v>1.021322943505686</v>
+        <v>1.02265600489344</v>
       </c>
       <c r="L8">
-        <v>1.00885300164839</v>
+        <v>1.010135961013431</v>
       </c>
       <c r="M8">
-        <v>1.029689803405643</v>
+        <v>1.030734761391221</v>
       </c>
       <c r="N8">
-        <v>1.007443426645943</v>
+        <v>1.01053124002643</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.032069828266334</v>
+        <v>1.032896851783806</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.026170440014617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.027124233141859</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.017776909295186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9802551556311987</v>
+        <v>0.9823843498259093</v>
       </c>
       <c r="D9">
-        <v>1.002974748372913</v>
+        <v>1.005129509365062</v>
       </c>
       <c r="E9">
-        <v>0.9897769437737378</v>
+        <v>0.9916774612154025</v>
       </c>
       <c r="F9">
-        <v>1.01149380674108</v>
+        <v>1.013151224008949</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="J9">
-        <v>1.006524953509546</v>
+        <v>1.008574873977792</v>
       </c>
       <c r="K9">
-        <v>1.016019746031121</v>
+        <v>1.01813990847751</v>
       </c>
       <c r="L9">
-        <v>1.003038089502008</v>
+        <v>1.004907024593124</v>
       </c>
       <c r="M9">
-        <v>1.024403117301862</v>
+        <v>1.026034475321998</v>
       </c>
       <c r="N9">
-        <v>1.00540641485879</v>
+        <v>1.009118712548027</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.027885708390116</v>
+        <v>1.029176840799808</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.022417346627865</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.023927448567341</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.016686331901709</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9734640623071641</v>
+        <v>0.97610478438378</v>
       </c>
       <c r="D10">
-        <v>0.9980507298469449</v>
+        <v>1.000786738652133</v>
       </c>
       <c r="E10">
-        <v>0.9844376278867172</v>
+        <v>0.9867900690449333</v>
       </c>
       <c r="F10">
-        <v>1.006657309581334</v>
+        <v>1.008751609454302</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="J10">
-        <v>1.002771553265147</v>
+        <v>1.00529961640235</v>
       </c>
       <c r="K10">
-        <v>1.012455268385098</v>
+        <v>1.015141802803778</v>
       </c>
       <c r="L10">
-        <v>0.9990936679912403</v>
+        <v>1.00140200053138</v>
       </c>
       <c r="M10">
-        <v>1.02090739565373</v>
+        <v>1.022964628503577</v>
       </c>
       <c r="N10">
-        <v>1.004028416109123</v>
+        <v>1.008289247337636</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.025171306547051</v>
+        <v>1.026799397439996</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.019914085242907</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.021826348799247</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.015961797197672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9712346390695447</v>
+        <v>0.9740251819532866</v>
       </c>
       <c r="D11">
-        <v>0.9967309223979395</v>
+        <v>0.9996250915175015</v>
       </c>
       <c r="E11">
-        <v>0.9827921042385643</v>
+        <v>0.9852754718229771</v>
       </c>
       <c r="F11">
-        <v>1.005771414657521</v>
+        <v>1.007983244688453</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="J11">
-        <v>1.001855062410347</v>
+        <v>1.004519941050276</v>
       </c>
       <c r="K11">
-        <v>1.011714753186047</v>
+        <v>1.014554081528267</v>
       </c>
       <c r="L11">
-        <v>0.9980459998933376</v>
+        <v>1.000480517982274</v>
       </c>
       <c r="M11">
-        <v>1.020585305162744</v>
+        <v>1.022756162892444</v>
       </c>
       <c r="N11">
-        <v>1.003751309684377</v>
+        <v>1.008337850323282</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.025359320175838</v>
+        <v>1.027076444244428</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.019424031698534</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.021447508705541</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.015901011883152</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9706927026980048</v>
+        <v>0.9734868900134916</v>
       </c>
       <c r="D12">
-        <v>0.9965466950149225</v>
+        <v>0.9994447714591285</v>
       </c>
       <c r="E12">
-        <v>0.982446580570919</v>
+        <v>0.9849307525427937</v>
       </c>
       <c r="F12">
-        <v>1.0058912114429</v>
+        <v>1.008103694236253</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="J12">
-        <v>1.001791358814276</v>
+        <v>1.004457317329517</v>
       </c>
       <c r="K12">
-        <v>1.011740355303966</v>
+        <v>1.014582616507705</v>
       </c>
       <c r="L12">
-        <v>0.9979179843798345</v>
+        <v>1.000352464363796</v>
       </c>
       <c r="M12">
-        <v>1.020906408831566</v>
+        <v>1.023077269820452</v>
       </c>
       <c r="N12">
-        <v>1.003778087787533</v>
+        <v>1.008457828465282</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.025944104264013</v>
+        <v>1.027660634719035</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.019442133952008</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.021467684123867</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.015969933267564</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9714355778645112</v>
+        <v>0.9741067990128587</v>
       </c>
       <c r="D13">
-        <v>0.9972513046947376</v>
+        <v>1.000022984328306</v>
       </c>
       <c r="E13">
-        <v>0.9830961176224443</v>
+        <v>0.9854677235833498</v>
       </c>
       <c r="F13">
-        <v>1.006824588690532</v>
+        <v>1.008938407778923</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="J13">
-        <v>1.002402790333729</v>
+        <v>1.004952123007168</v>
       </c>
       <c r="K13">
-        <v>1.012387143888135</v>
+        <v>1.015105711576238</v>
       </c>
       <c r="L13">
-        <v>0.9985093466251209</v>
+        <v>1.00083374745772</v>
       </c>
       <c r="M13">
-        <v>1.021778599231806</v>
+        <v>1.023852876697333</v>
       </c>
       <c r="N13">
-        <v>1.004050591902574</v>
+        <v>1.008610228540509</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.026913575024408</v>
+        <v>1.028553314792401</v>
       </c>
       <c r="Q13">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.019896908183689</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.021834750182622</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.016150008452044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9725373797284018</v>
+        <v>0.9750667592671017</v>
       </c>
       <c r="D14">
-        <v>0.9981474545213749</v>
+        <v>1.000773056077861</v>
       </c>
       <c r="E14">
-        <v>0.9840015642853697</v>
+        <v>0.9862445567013768</v>
       </c>
       <c r="F14">
-        <v>1.007845200571477</v>
+        <v>1.009846196059062</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="J14">
-        <v>1.003136368901919</v>
+        <v>1.005552074094682</v>
       </c>
       <c r="K14">
-        <v>1.013121406753516</v>
+        <v>1.015697358147634</v>
       </c>
       <c r="L14">
-        <v>0.999249002999852</v>
+        <v>1.001447944231927</v>
       </c>
       <c r="M14">
-        <v>1.022637445895897</v>
+        <v>1.024601514591972</v>
       </c>
       <c r="N14">
-        <v>1.004352793370848</v>
+        <v>1.008733293070084</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.027767449276352</v>
+        <v>1.029319855164959</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.020417530482715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.022254659882862</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.01632714242143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9730933012681066</v>
+        <v>0.975560819413242</v>
       </c>
       <c r="D15">
-        <v>0.998572174451028</v>
+        <v>1.001133520092017</v>
       </c>
       <c r="E15">
-        <v>0.9844464200065033</v>
+        <v>0.986633748474033</v>
       </c>
       <c r="F15">
-        <v>1.008290940737176</v>
+        <v>1.010242653350335</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="J15">
-        <v>1.003471750256457</v>
+        <v>1.005829378448128</v>
       </c>
       <c r="K15">
-        <v>1.013448990129953</v>
+        <v>1.015962282579141</v>
       </c>
       <c r="L15">
-        <v>0.9995941415772387</v>
+        <v>1.001738855647171</v>
       </c>
       <c r="M15">
-        <v>1.022987109266189</v>
+        <v>1.02490309004307</v>
       </c>
       <c r="N15">
-        <v>1.004483586986566</v>
+        <v>1.00877616571685</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.028081674323829</v>
+        <v>1.029596031160626</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.020655140791101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.022448526173425</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.01639871275842</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9758189939271465</v>
+        <v>0.9780382650452304</v>
       </c>
       <c r="D16">
-        <v>1.000521000847814</v>
+        <v>1.002817567404259</v>
       </c>
       <c r="E16">
-        <v>0.9865695259638075</v>
+        <v>0.9885362154986536</v>
       </c>
       <c r="F16">
-        <v>1.010188092206954</v>
+        <v>1.011938979276289</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="J16">
-        <v>1.00494599962431</v>
+        <v>1.007071486326414</v>
       </c>
       <c r="K16">
-        <v>1.014844204725418</v>
+        <v>1.017099606702893</v>
       </c>
       <c r="L16">
-        <v>1.001148176078233</v>
+        <v>1.003078286925541</v>
       </c>
       <c r="M16">
-        <v>1.024339657399826</v>
+        <v>1.026059911821417</v>
       </c>
       <c r="N16">
-        <v>1.005015273385586</v>
+        <v>1.008918594352783</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.029111669870171</v>
+        <v>1.030471367621944</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.021644869657596</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.02325619720839</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.016660627667795</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9773365824368476</v>
+        <v>0.9794488832030118</v>
       </c>
       <c r="D17">
-        <v>1.001550346710955</v>
+        <v>1.003727252131114</v>
       </c>
       <c r="E17">
-        <v>0.9877286802933978</v>
+        <v>0.9896018440358519</v>
       </c>
       <c r="F17">
-        <v>1.011106468459784</v>
+        <v>1.012768044008961</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="J17">
-        <v>1.005694431006366</v>
+        <v>1.007720379901284</v>
       </c>
       <c r="K17">
-        <v>1.015531247229934</v>
+        <v>1.017670243213691</v>
       </c>
       <c r="L17">
-        <v>1.001955346545334</v>
+        <v>1.003794680502788</v>
       </c>
       <c r="M17">
-        <v>1.024922523678528</v>
+        <v>1.026555846482544</v>
       </c>
       <c r="N17">
-        <v>1.005265264272642</v>
+        <v>1.008993821618271</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.029442185816928</v>
+        <v>1.030733302905266</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.022133288313817</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.023662550513962</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.016770914336957</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9779347903791967</v>
+        <v>0.9800421714887682</v>
       </c>
       <c r="D18">
-        <v>1.001844624945812</v>
+        <v>1.004009987926112</v>
       </c>
       <c r="E18">
-        <v>0.9881425933128687</v>
+        <v>0.99001392093697</v>
       </c>
       <c r="F18">
-        <v>1.011204323920196</v>
+        <v>1.012859368581786</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="J18">
-        <v>1.005858116501979</v>
+        <v>1.007880958261233</v>
       </c>
       <c r="K18">
-        <v>1.015631593545338</v>
+        <v>1.017759860895254</v>
       </c>
       <c r="L18">
-        <v>1.002169188880891</v>
+        <v>1.004007282599479</v>
       </c>
       <c r="M18">
-        <v>1.024832418729129</v>
+        <v>1.026459763920579</v>
       </c>
       <c r="N18">
-        <v>1.005284482053687</v>
+        <v>1.008970604700079</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.02913081846283</v>
+        <v>1.030417483461133</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.022192378877809</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.023712931777705</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.016745958379464</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9777383929909408</v>
+        <v>0.9799192476779568</v>
       </c>
       <c r="D19">
-        <v>1.00151163350365</v>
+        <v>1.003751961854106</v>
       </c>
       <c r="E19">
-        <v>0.9879173672411402</v>
+        <v>0.9898568458906205</v>
       </c>
       <c r="F19">
-        <v>1.010580070654988</v>
+        <v>1.012294400692133</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="J19">
-        <v>1.005529903205241</v>
+        <v>1.007623745547089</v>
       </c>
       <c r="K19">
-        <v>1.015239921467809</v>
+        <v>1.017442046753008</v>
       </c>
       <c r="L19">
-        <v>1.001882290618763</v>
+        <v>1.003787493398138</v>
       </c>
       <c r="M19">
-        <v>1.024155066014376</v>
+        <v>1.025840814626913</v>
       </c>
       <c r="N19">
-        <v>1.005116327633153</v>
+        <v>1.008851640705103</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.028265800821204</v>
+        <v>1.029599088215828</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.021921964665191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.023495361790346</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.016612363899711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9752778263490268</v>
+        <v>0.9777537481006765</v>
       </c>
       <c r="D20">
-        <v>0.9993869758862624</v>
+        <v>1.001945874691631</v>
       </c>
       <c r="E20">
-        <v>0.9858679617792908</v>
+        <v>0.9880735473526451</v>
       </c>
       <c r="F20">
-        <v>1.007957637102456</v>
+        <v>1.009917155153659</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="J20">
-        <v>1.003796172422285</v>
+        <v>1.006170004217642</v>
       </c>
       <c r="K20">
-        <v>1.013440613155634</v>
+        <v>1.015954594318262</v>
       </c>
       <c r="L20">
-        <v>1.000163942659991</v>
+        <v>1.002329401747983</v>
       </c>
       <c r="M20">
-        <v>1.021861989529281</v>
+        <v>1.02378783637267</v>
       </c>
       <c r="N20">
-        <v>1.004409531416679</v>
+        <v>1.008444612720076</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.025916058685704</v>
+        <v>1.027440189503674</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.020653747590498</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.022448046531289</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.016163488998884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9700278989055751</v>
+        <v>0.97303818980051</v>
       </c>
       <c r="D21">
-        <v>0.9955380914189866</v>
+        <v>0.9986578056907355</v>
       </c>
       <c r="E21">
-        <v>0.9817352119440016</v>
+        <v>0.9844194379218172</v>
       </c>
       <c r="F21">
-        <v>1.00410207914907</v>
+        <v>1.006490947872795</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="J21">
-        <v>1.000834479605859</v>
+        <v>1.003708084557424</v>
       </c>
       <c r="K21">
-        <v>1.010604491977855</v>
+        <v>1.013664651049289</v>
       </c>
       <c r="L21">
-        <v>0.9970710800555814</v>
+        <v>0.9997021256638109</v>
       </c>
       <c r="M21">
-        <v>1.019006150912616</v>
+        <v>1.021350381965953</v>
       </c>
       <c r="N21">
-        <v>1.003309762164609</v>
+        <v>1.00815001381108</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.023614281517517</v>
+        <v>1.025469625523458</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.01865173382879</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.020832559639425</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.01560419142995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9666835532498359</v>
+        <v>0.9700347511530911</v>
       </c>
       <c r="D22">
-        <v>0.9931047092544353</v>
+        <v>0.9965805069736509</v>
       </c>
       <c r="E22">
-        <v>0.979114154488479</v>
+        <v>0.9821038844547518</v>
       </c>
       <c r="F22">
-        <v>1.001698766738224</v>
+        <v>1.004360555873465</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="J22">
-        <v>0.9989590278639527</v>
+        <v>1.002148910542096</v>
       </c>
       <c r="K22">
-        <v>1.008814012044099</v>
+        <v>1.0122200104177</v>
       </c>
       <c r="L22">
-        <v>0.9951110376165032</v>
+        <v>0.9980384032810979</v>
       </c>
       <c r="M22">
-        <v>1.017236645677381</v>
+        <v>1.019846121427302</v>
       </c>
       <c r="N22">
-        <v>1.002613820186101</v>
+        <v>1.007958454277046</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.022213801469693</v>
+        <v>1.024279077601809</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.017371931648611</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.019796023508651</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.015251428030995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9684438875688256</v>
+        <v>0.9716017899491671</v>
       </c>
       <c r="D23">
-        <v>0.9943763487663314</v>
+        <v>0.9976537268921838</v>
       </c>
       <c r="E23">
-        <v>0.9804903986822033</v>
+        <v>0.9833062046808599</v>
       </c>
       <c r="F23">
-        <v>1.002959754423078</v>
+        <v>1.005468927589306</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="J23">
-        <v>0.9999385091295453</v>
+        <v>1.002948994565428</v>
       </c>
       <c r="K23">
-        <v>1.009744624606594</v>
+        <v>1.012957914741233</v>
       </c>
       <c r="L23">
-        <v>0.9961364761031373</v>
+        <v>0.9988951139214283</v>
       </c>
       <c r="M23">
-        <v>1.018161347273943</v>
+        <v>1.020622497522149</v>
       </c>
       <c r="N23">
-        <v>1.002975768264541</v>
+        <v>1.008010464019335</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.022945659590941</v>
+        <v>1.02489354119612</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.018020087511234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.020306985114878</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.015427618070556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9752622835798243</v>
+        <v>0.9777473513220563</v>
       </c>
       <c r="D24">
-        <v>0.9993358713714955</v>
+        <v>1.001904059844294</v>
       </c>
       <c r="E24">
-        <v>0.9858431250207662</v>
+        <v>0.9880572098290379</v>
       </c>
       <c r="F24">
-        <v>1.007873950305306</v>
+        <v>1.009840946743422</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="J24">
-        <v>1.00374700849508</v>
+        <v>1.006129750761289</v>
       </c>
       <c r="K24">
-        <v>1.013374659899268</v>
+        <v>1.015897820363578</v>
       </c>
       <c r="L24">
-        <v>1.000123497633606</v>
+        <v>1.00229735128923</v>
       </c>
       <c r="M24">
-        <v>1.02176418728029</v>
+        <v>1.023697420559049</v>
       </c>
       <c r="N24">
-        <v>1.004383969076425</v>
+        <v>1.008423577873866</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.025797131627242</v>
+        <v>1.027327186503315</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.020579137302242</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.022377286949208</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.016139256035847</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9828961254313676</v>
+        <v>0.984829615703496</v>
       </c>
       <c r="D25">
-        <v>1.004927556293806</v>
+        <v>1.006857159508796</v>
       </c>
       <c r="E25">
-        <v>0.9918697579230903</v>
+        <v>0.9935969133864265</v>
       </c>
       <c r="F25">
-        <v>1.013424750912704</v>
+        <v>1.01491331035771</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="J25">
-        <v>1.008013139234115</v>
+        <v>1.009878536281427</v>
       </c>
       <c r="K25">
-        <v>1.017449856876532</v>
+        <v>1.019349951417952</v>
       </c>
       <c r="L25">
-        <v>1.004595610342369</v>
+        <v>1.00629544897925</v>
       </c>
       <c r="M25">
-        <v>1.025818179077659</v>
+        <v>1.027284444942933</v>
       </c>
       <c r="N25">
-        <v>1.005957020689096</v>
+        <v>1.009466164731537</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.029005654057754</v>
+        <v>1.030166123107275</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.023457698387399</v>
+        <v>1.024814960258182</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.01698387786207</v>
       </c>
     </row>
   </sheetData>
